--- a/input/emissions-inventories/Canada/ape_results_e_SO2_2014.xlsx
+++ b/input/emissions-inventories/Canada/ape_results_e_SO2_2014.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huong Nguyen\Desktop\CEDS\input\emissions-inventories\Canada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\CEDS\input\emissions-inventories\Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B63C44B-479B-4797-99CD-183A4D8342EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="585" yWindow="11400" windowWidth="14145" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -890,19 +891,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1223,10 +1224,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1235,18 +1238,18 @@
     <col min="3" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1270,1528 +1273,1792 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2016</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H8" s="4">
         <v>2014</v>
       </c>
-      <c r="C8" s="4">
+      <c r="I8" s="4">
         <v>2013</v>
       </c>
-      <c r="D8" s="4">
+      <c r="J8" s="4">
         <v>2012</v>
       </c>
-      <c r="E8" s="4">
+      <c r="K8" s="4">
         <v>2011</v>
       </c>
-      <c r="F8" s="4">
+      <c r="L8" s="4">
         <v>2010</v>
       </c>
-      <c r="G8" s="4">
+      <c r="M8" s="4">
         <v>2009</v>
       </c>
-      <c r="H8" s="4">
+      <c r="N8" s="4">
         <v>2008</v>
       </c>
-      <c r="I8" s="4">
+      <c r="O8" s="4">
         <v>2007</v>
       </c>
-      <c r="J8" s="4">
+      <c r="P8" s="4">
         <v>2006</v>
       </c>
-      <c r="K8" s="4">
+      <c r="Q8" s="4">
         <v>2005</v>
       </c>
-      <c r="L8" s="4">
+      <c r="R8" s="4">
         <v>2004</v>
       </c>
-      <c r="M8" s="4">
+      <c r="S8" s="4">
         <v>2003</v>
       </c>
-      <c r="N8" s="4">
+      <c r="T8" s="4">
         <v>2002</v>
       </c>
-      <c r="O8" s="4">
+      <c r="U8" s="4">
         <v>2001</v>
       </c>
-      <c r="P8" s="4">
+      <c r="V8" s="4">
         <v>2000</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="W8" s="4">
         <v>1999</v>
       </c>
-      <c r="R8" s="4">
+      <c r="X8" s="4">
         <v>1998</v>
       </c>
-      <c r="S8" s="4">
+      <c r="Y8" s="4">
         <v>1997</v>
       </c>
-      <c r="T8" s="4">
+      <c r="Z8" s="4">
         <v>1996</v>
       </c>
-      <c r="U8" s="4">
+      <c r="AA8" s="4">
         <v>1995</v>
       </c>
-      <c r="V8" s="4">
+      <c r="AB8" s="4">
         <v>1994</v>
       </c>
-      <c r="W8" s="4">
+      <c r="AC8" s="4">
         <v>1993</v>
       </c>
-      <c r="X8" s="4">
+      <c r="AD8" s="4">
         <v>1992</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="AE8" s="4">
         <v>1991</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AF8" s="4">
         <v>1990</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="16"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
+        <v>61124</v>
+      </c>
+      <c r="C10" s="5">
+        <v>56626</v>
+      </c>
+      <c r="D10" s="5">
+        <v>61370</v>
+      </c>
+      <c r="E10" s="5">
+        <v>65773</v>
+      </c>
+      <c r="F10" s="5">
+        <v>63838</v>
+      </c>
+      <c r="G10" s="5">
+        <v>57081</v>
+      </c>
+      <c r="H10" s="6">
         <v>55165</v>
       </c>
-      <c r="C10" s="6">
+      <c r="I10" s="6">
         <v>59606</v>
       </c>
-      <c r="D10" s="6">
+      <c r="J10" s="6">
         <v>62695</v>
       </c>
-      <c r="E10" s="6">
+      <c r="K10" s="6">
         <v>64765</v>
       </c>
-      <c r="F10" s="6">
+      <c r="L10" s="6">
         <v>59077</v>
       </c>
-      <c r="G10" s="6">
+      <c r="M10" s="6">
         <v>59123</v>
       </c>
-      <c r="H10" s="6">
+      <c r="N10" s="6">
         <v>64006</v>
       </c>
-      <c r="I10" s="6">
+      <c r="O10" s="6">
         <v>62309</v>
       </c>
-      <c r="J10" s="6">
+      <c r="P10" s="6">
         <v>63796</v>
       </c>
-      <c r="K10" s="6">
+      <c r="Q10" s="6">
         <v>62907</v>
       </c>
-      <c r="L10" s="6">
+      <c r="R10" s="6">
         <v>58431</v>
       </c>
-      <c r="M10" s="6">
+      <c r="S10" s="6">
         <v>56780</v>
       </c>
-      <c r="N10" s="6">
+      <c r="T10" s="6">
         <v>59005</v>
       </c>
-      <c r="O10" s="6">
+      <c r="U10" s="6">
         <v>56215</v>
       </c>
-      <c r="P10" s="6">
+      <c r="V10" s="6">
         <v>48006</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="W10" s="6">
         <v>48843</v>
       </c>
-      <c r="R10" s="6">
+      <c r="X10" s="6">
         <v>51036</v>
       </c>
-      <c r="S10" s="6">
+      <c r="Y10" s="6">
         <v>52010</v>
       </c>
-      <c r="T10" s="6">
+      <c r="Z10" s="6">
         <v>49764</v>
       </c>
-      <c r="U10" s="6">
+      <c r="AA10" s="6">
         <v>44955</v>
       </c>
-      <c r="V10" s="6">
+      <c r="AB10" s="6">
         <v>50258</v>
       </c>
-      <c r="W10" s="6">
+      <c r="AC10" s="6">
         <v>46615</v>
       </c>
-      <c r="X10" s="6">
+      <c r="AD10" s="6">
         <v>43153</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="AE10" s="6">
         <v>38353</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AF10" s="6">
         <v>30969</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
+        <v>562</v>
+      </c>
+      <c r="C11" s="5">
+        <v>624</v>
+      </c>
+      <c r="D11" s="5">
+        <v>692</v>
+      </c>
+      <c r="E11" s="5">
+        <v>686</v>
+      </c>
+      <c r="F11" s="5">
+        <v>610</v>
+      </c>
+      <c r="G11" s="5">
+        <v>572</v>
+      </c>
+      <c r="H11" s="6">
         <v>556</v>
       </c>
-      <c r="C11" s="6">
+      <c r="I11" s="6">
         <v>556</v>
       </c>
-      <c r="D11" s="6">
+      <c r="J11" s="6">
         <v>621</v>
       </c>
-      <c r="E11" s="6">
+      <c r="K11" s="6">
         <v>852</v>
       </c>
-      <c r="F11" s="6">
+      <c r="L11" s="6">
         <v>991</v>
       </c>
-      <c r="G11" s="6">
+      <c r="M11" s="6">
         <v>819</v>
       </c>
-      <c r="H11" s="6">
+      <c r="N11" s="6">
         <v>866</v>
       </c>
-      <c r="I11" s="6">
+      <c r="O11" s="6">
         <v>812</v>
       </c>
-      <c r="J11" s="6">
+      <c r="P11" s="6">
         <v>699</v>
       </c>
-      <c r="K11" s="6">
+      <c r="Q11" s="6">
         <v>719</v>
       </c>
-      <c r="L11" s="6">
+      <c r="R11" s="6">
         <v>720</v>
       </c>
-      <c r="M11" s="6">
+      <c r="S11" s="6">
         <v>683</v>
       </c>
-      <c r="N11" s="6">
+      <c r="T11" s="6">
         <v>669</v>
       </c>
-      <c r="O11" s="6">
+      <c r="U11" s="6">
         <v>672</v>
       </c>
-      <c r="P11" s="6">
+      <c r="V11" s="6">
         <v>646</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="W11" s="6">
         <v>831</v>
       </c>
-      <c r="R11" s="6">
+      <c r="X11" s="6">
         <v>920</v>
       </c>
-      <c r="S11" s="6">
+      <c r="Y11" s="6">
         <v>964</v>
       </c>
-      <c r="T11" s="6">
+      <c r="Z11" s="6">
         <v>972</v>
       </c>
-      <c r="U11" s="6">
+      <c r="AA11" s="6">
         <v>1063</v>
       </c>
-      <c r="V11" s="6">
+      <c r="AB11" s="6">
         <v>1093</v>
       </c>
-      <c r="W11" s="6">
+      <c r="AC11" s="6">
         <v>900</v>
       </c>
-      <c r="X11" s="6">
+      <c r="AD11" s="6">
         <v>840</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="AE11" s="6">
         <v>778</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="AF11" s="6">
         <v>738</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
+        <v>18577</v>
+      </c>
+      <c r="C12" s="5">
+        <v>23415</v>
+      </c>
+      <c r="D12" s="5">
+        <v>24935</v>
+      </c>
+      <c r="E12" s="5">
+        <v>22843</v>
+      </c>
+      <c r="F12" s="5">
+        <v>23905</v>
+      </c>
+      <c r="G12" s="5">
+        <v>23408</v>
+      </c>
+      <c r="H12" s="6">
         <v>20282</v>
       </c>
-      <c r="C12" s="6">
+      <c r="I12" s="6">
         <v>22647</v>
       </c>
-      <c r="D12" s="6">
+      <c r="J12" s="6">
         <v>25399</v>
       </c>
-      <c r="E12" s="6">
+      <c r="K12" s="6">
         <v>21542</v>
       </c>
-      <c r="F12" s="6">
+      <c r="L12" s="6">
         <v>23105</v>
       </c>
-      <c r="G12" s="6">
+      <c r="M12" s="6">
         <v>24577</v>
       </c>
-      <c r="H12" s="6">
+      <c r="N12" s="6">
         <v>31303</v>
       </c>
-      <c r="I12" s="6">
+      <c r="O12" s="6">
         <v>39415</v>
       </c>
-      <c r="J12" s="6">
+      <c r="P12" s="6">
         <v>41352</v>
       </c>
-      <c r="K12" s="6">
+      <c r="Q12" s="6">
         <v>54130</v>
       </c>
-      <c r="L12" s="6">
+      <c r="R12" s="6">
         <v>51913</v>
       </c>
-      <c r="M12" s="6">
+      <c r="S12" s="6">
         <v>46413</v>
       </c>
-      <c r="N12" s="6">
+      <c r="T12" s="6">
         <v>41486</v>
       </c>
-      <c r="O12" s="6">
+      <c r="U12" s="6">
         <v>43606</v>
       </c>
-      <c r="P12" s="6">
+      <c r="V12" s="6">
         <v>44449</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="W12" s="6">
         <v>38949</v>
       </c>
-      <c r="R12" s="6">
+      <c r="X12" s="6">
         <v>39204</v>
       </c>
-      <c r="S12" s="6">
+      <c r="Y12" s="6">
         <v>37750</v>
       </c>
-      <c r="T12" s="6">
+      <c r="Z12" s="6">
         <v>36039</v>
       </c>
-      <c r="U12" s="6">
+      <c r="AA12" s="6">
         <v>38518</v>
       </c>
-      <c r="V12" s="6">
+      <c r="AB12" s="6">
         <v>36178</v>
       </c>
-      <c r="W12" s="6">
+      <c r="AC12" s="6">
         <v>33866</v>
       </c>
-      <c r="X12" s="6">
+      <c r="AD12" s="6">
         <v>32966</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="AE12" s="6">
         <v>37908</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AF12" s="6">
         <v>47563</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
+        <v>14793</v>
+      </c>
+      <c r="C13" s="5">
+        <v>17894</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20136</v>
+      </c>
+      <c r="E13" s="5">
+        <v>17655</v>
+      </c>
+      <c r="F13" s="5">
+        <v>20875</v>
+      </c>
+      <c r="G13" s="5">
+        <v>22520</v>
+      </c>
+      <c r="H13" s="6">
         <v>21316</v>
       </c>
-      <c r="C13" s="6">
+      <c r="I13" s="6">
         <v>19565</v>
       </c>
-      <c r="D13" s="6">
+      <c r="J13" s="6">
         <v>20349</v>
       </c>
-      <c r="E13" s="6">
+      <c r="K13" s="6">
         <v>22612</v>
       </c>
-      <c r="F13" s="6">
+      <c r="L13" s="6">
         <v>20953</v>
       </c>
-      <c r="G13" s="6">
+      <c r="M13" s="6">
         <v>18901</v>
       </c>
-      <c r="H13" s="6">
+      <c r="N13" s="6">
         <v>21373</v>
       </c>
-      <c r="I13" s="6">
+      <c r="O13" s="6">
         <v>21886</v>
       </c>
-      <c r="J13" s="6">
+      <c r="P13" s="6">
         <v>25011</v>
       </c>
-      <c r="K13" s="6">
+      <c r="Q13" s="6">
         <v>35275</v>
       </c>
-      <c r="L13" s="6">
+      <c r="R13" s="6">
         <v>37441</v>
       </c>
-      <c r="M13" s="6">
+      <c r="S13" s="6">
         <v>37095</v>
       </c>
-      <c r="N13" s="6">
+      <c r="T13" s="6">
         <v>33784</v>
       </c>
-      <c r="O13" s="6">
+      <c r="U13" s="6">
         <v>31093</v>
       </c>
-      <c r="P13" s="6">
+      <c r="V13" s="6">
         <v>31154</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="W13" s="6">
         <v>31866</v>
       </c>
-      <c r="R13" s="6">
+      <c r="X13" s="6">
         <v>33111</v>
       </c>
-      <c r="S13" s="6">
+      <c r="Y13" s="6">
         <v>32434</v>
       </c>
-      <c r="T13" s="6">
+      <c r="Z13" s="6">
         <v>28441</v>
       </c>
-      <c r="U13" s="6">
+      <c r="AA13" s="6">
         <v>30199</v>
       </c>
-      <c r="V13" s="6">
+      <c r="AB13" s="6">
         <v>33336</v>
       </c>
-      <c r="W13" s="6">
+      <c r="AC13" s="6">
         <v>32871</v>
       </c>
-      <c r="X13" s="6">
+      <c r="AD13" s="6">
         <v>33347</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="AE13" s="6">
         <v>32872</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="AF13" s="6">
         <v>37559</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
+        <v>690</v>
+      </c>
+      <c r="C14" s="5">
+        <v>724</v>
+      </c>
+      <c r="D14" s="5">
+        <v>754</v>
+      </c>
+      <c r="E14" s="5">
+        <v>851</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1531</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1384</v>
+      </c>
+      <c r="H14" s="6">
         <v>1568</v>
       </c>
-      <c r="C14" s="6">
+      <c r="I14" s="6">
         <v>1799</v>
       </c>
-      <c r="D14" s="6">
+      <c r="J14" s="6">
         <v>1499</v>
       </c>
-      <c r="E14" s="6">
+      <c r="K14" s="6">
         <v>1398</v>
       </c>
-      <c r="F14" s="6">
+      <c r="L14" s="6">
         <v>1202</v>
       </c>
-      <c r="G14" s="6">
+      <c r="M14" s="6">
         <v>1506</v>
       </c>
-      <c r="H14" s="6">
+      <c r="N14" s="6">
         <v>933</v>
       </c>
-      <c r="I14" s="6">
+      <c r="O14" s="6">
         <v>913</v>
       </c>
-      <c r="J14" s="6">
+      <c r="P14" s="6">
         <v>1154</v>
       </c>
-      <c r="K14" s="6">
+      <c r="Q14" s="6">
         <v>1666</v>
       </c>
-      <c r="L14" s="6">
+      <c r="R14" s="6">
         <v>1665</v>
       </c>
-      <c r="M14" s="6">
+      <c r="S14" s="6">
         <v>1702</v>
       </c>
-      <c r="N14" s="6">
+      <c r="T14" s="6">
         <v>1886</v>
       </c>
-      <c r="O14" s="6">
+      <c r="U14" s="6">
         <v>1224</v>
       </c>
-      <c r="P14" s="6">
+      <c r="V14" s="6">
         <v>1048</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="W14" s="6">
         <v>1526</v>
       </c>
-      <c r="R14" s="6">
+      <c r="X14" s="6">
         <v>1387</v>
       </c>
-      <c r="S14" s="6">
+      <c r="Y14" s="6">
         <v>1509</v>
       </c>
-      <c r="T14" s="6">
+      <c r="Z14" s="6">
         <v>1667</v>
       </c>
-      <c r="U14" s="6">
+      <c r="AA14" s="6">
         <v>1818</v>
       </c>
-      <c r="V14" s="6">
+      <c r="AB14" s="6">
         <v>1481</v>
       </c>
-      <c r="W14" s="6">
+      <c r="AC14" s="6">
         <v>1451</v>
       </c>
-      <c r="X14" s="6">
+      <c r="AD14" s="6">
         <v>1547</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="AE14" s="6">
         <v>1466</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="AF14" s="6">
         <v>1615</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5">
+        <v>21</v>
+      </c>
+      <c r="F15" s="5">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5">
+        <v>22</v>
+      </c>
+      <c r="H15" s="6">
         <v>48</v>
       </c>
-      <c r="C15" s="6">
+      <c r="I15" s="6">
         <v>48</v>
       </c>
-      <c r="D15" s="6">
+      <c r="J15" s="6">
         <v>48</v>
       </c>
-      <c r="E15" s="6">
+      <c r="K15" s="6">
         <v>48</v>
       </c>
-      <c r="F15" s="6">
+      <c r="L15" s="6">
         <v>49</v>
       </c>
-      <c r="G15" s="6">
+      <c r="M15" s="6">
         <v>50</v>
       </c>
-      <c r="H15" s="6">
+      <c r="N15" s="6">
         <v>95</v>
       </c>
-      <c r="I15" s="6">
+      <c r="O15" s="6">
         <v>49</v>
       </c>
-      <c r="J15" s="6">
+      <c r="P15" s="6">
         <v>47</v>
       </c>
-      <c r="K15" s="6">
+      <c r="Q15" s="6">
         <v>721</v>
       </c>
-      <c r="L15" s="6">
+      <c r="R15" s="6">
         <v>729</v>
       </c>
-      <c r="M15" s="6">
+      <c r="S15" s="6">
         <v>778</v>
       </c>
-      <c r="N15" s="6">
+      <c r="T15" s="6">
         <v>745</v>
       </c>
-      <c r="O15" s="6">
+      <c r="U15" s="6">
         <v>823</v>
       </c>
-      <c r="P15" s="6">
+      <c r="V15" s="6">
         <v>912</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="W15" s="6">
         <v>1076</v>
       </c>
-      <c r="R15" s="6">
+      <c r="X15" s="6">
         <v>1076</v>
       </c>
-      <c r="S15" s="6">
+      <c r="Y15" s="6">
         <v>1064</v>
       </c>
-      <c r="T15" s="6">
+      <c r="Z15" s="6">
         <v>1055</v>
       </c>
-      <c r="U15" s="6">
+      <c r="AA15" s="6">
         <v>1166</v>
       </c>
-      <c r="V15" s="6">
+      <c r="AB15" s="6">
         <v>1127</v>
       </c>
-      <c r="W15" s="6">
+      <c r="AC15" s="6">
         <v>1168</v>
       </c>
-      <c r="X15" s="6">
+      <c r="AD15" s="6">
         <v>1214</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="AE15" s="6">
         <v>1160</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="AF15" s="6">
         <v>1288</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6">
         <v>470</v>
       </c>
-      <c r="C16" s="6">
+      <c r="I16" s="6">
         <v>630</v>
       </c>
-      <c r="D16" s="6">
+      <c r="J16" s="6">
         <v>660</v>
       </c>
-      <c r="E16" s="6">
+      <c r="K16" s="6">
         <v>703</v>
       </c>
-      <c r="F16" s="6">
+      <c r="L16" s="6">
         <v>660</v>
       </c>
-      <c r="G16" s="6">
+      <c r="M16" s="6">
         <v>582</v>
       </c>
-      <c r="H16" s="6">
+      <c r="N16" s="6">
         <v>213</v>
       </c>
-      <c r="I16" s="6">
+      <c r="O16" s="6">
         <v>210</v>
       </c>
-      <c r="J16" s="6">
+      <c r="P16" s="6">
         <v>796</v>
       </c>
-      <c r="K16" s="6">
+      <c r="Q16" s="6">
         <v>389</v>
       </c>
-      <c r="L16" s="6">
+      <c r="R16" s="6">
         <v>226</v>
       </c>
-      <c r="M16" s="6">
+      <c r="S16" s="6">
         <v>217</v>
       </c>
-      <c r="N16" s="6">
+      <c r="T16" s="6">
         <v>324</v>
       </c>
-      <c r="O16" s="6">
+      <c r="U16" s="6">
         <v>269</v>
       </c>
-      <c r="P16" s="6">
+      <c r="V16" s="6">
         <v>214</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="W16" s="6">
         <v>214</v>
       </c>
-      <c r="R16" s="6">
+      <c r="X16" s="6">
         <v>214</v>
       </c>
-      <c r="S16" s="6">
+      <c r="Y16" s="6">
         <v>214</v>
       </c>
-      <c r="T16" s="6">
+      <c r="Z16" s="6">
         <v>223</v>
       </c>
-      <c r="U16" s="6">
+      <c r="AA16" s="6">
         <v>223</v>
       </c>
-      <c r="V16" s="6">
+      <c r="AB16" s="6">
         <v>359</v>
       </c>
-      <c r="W16" s="6">
+      <c r="AC16" s="6">
         <v>351</v>
       </c>
-      <c r="X16" s="6">
+      <c r="AD16" s="6">
         <v>347</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="AE16" s="6">
         <v>348</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="AF16" s="6">
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
+        <v>14959</v>
+      </c>
+      <c r="C17" s="5">
+        <v>19345</v>
+      </c>
+      <c r="D17" s="5">
+        <v>19089</v>
+      </c>
+      <c r="E17" s="5">
+        <v>18002</v>
+      </c>
+      <c r="F17" s="5">
+        <v>17310</v>
+      </c>
+      <c r="G17" s="5">
+        <v>21540</v>
+      </c>
+      <c r="H17" s="6">
         <v>24166</v>
       </c>
-      <c r="C17" s="6">
+      <c r="I17" s="6">
         <v>23639</v>
       </c>
-      <c r="D17" s="6">
+      <c r="J17" s="6">
         <v>29980</v>
       </c>
-      <c r="E17" s="6">
+      <c r="K17" s="6">
         <v>29054</v>
       </c>
-      <c r="F17" s="6">
+      <c r="L17" s="6">
         <v>26867</v>
       </c>
-      <c r="G17" s="6">
+      <c r="M17" s="6">
         <v>21763</v>
       </c>
-      <c r="H17" s="6">
+      <c r="N17" s="6">
         <v>26976</v>
       </c>
-      <c r="I17" s="6">
+      <c r="O17" s="6">
         <v>27900</v>
       </c>
-      <c r="J17" s="6">
+      <c r="P17" s="6">
         <v>28500</v>
       </c>
-      <c r="K17" s="6">
+      <c r="Q17" s="6">
         <v>30468</v>
       </c>
-      <c r="L17" s="6">
+      <c r="R17" s="6">
         <v>29588</v>
       </c>
-      <c r="M17" s="6">
+      <c r="S17" s="6">
         <v>28833</v>
       </c>
-      <c r="N17" s="6">
+      <c r="T17" s="6">
         <v>28425</v>
       </c>
-      <c r="O17" s="6">
+      <c r="U17" s="6">
         <v>29044</v>
       </c>
-      <c r="P17" s="6">
+      <c r="V17" s="6">
         <v>28917</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="W17" s="6">
         <v>33280</v>
       </c>
-      <c r="R17" s="6">
+      <c r="X17" s="6">
         <v>32064</v>
       </c>
-      <c r="S17" s="6">
+      <c r="Y17" s="6">
         <v>40651</v>
       </c>
-      <c r="T17" s="6">
+      <c r="Z17" s="6">
         <v>37826</v>
       </c>
-      <c r="U17" s="6">
+      <c r="AA17" s="6">
         <v>37702</v>
       </c>
-      <c r="V17" s="6">
+      <c r="AB17" s="6">
         <v>36635</v>
       </c>
-      <c r="W17" s="6">
+      <c r="AC17" s="6">
         <v>36607</v>
       </c>
-      <c r="X17" s="6">
+      <c r="AD17" s="6">
         <v>36188</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="AE17" s="6">
         <v>37189</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="AF17" s="6">
         <v>35851</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
+        <v>10228</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10715</v>
+      </c>
+      <c r="D18" s="5">
+        <v>9699</v>
+      </c>
+      <c r="E18" s="5">
+        <v>11757</v>
+      </c>
+      <c r="F18" s="5">
+        <v>12088</v>
+      </c>
+      <c r="G18" s="5">
+        <v>11654</v>
+      </c>
+      <c r="H18" s="6">
         <v>10318</v>
       </c>
-      <c r="C18" s="6">
+      <c r="I18" s="6">
         <v>11448</v>
       </c>
-      <c r="D18" s="6">
+      <c r="J18" s="6">
         <v>12738</v>
       </c>
-      <c r="E18" s="6">
+      <c r="K18" s="6">
         <v>12397</v>
       </c>
-      <c r="F18" s="6">
+      <c r="L18" s="6">
         <v>14622</v>
       </c>
-      <c r="G18" s="6">
+      <c r="M18" s="6">
         <v>10992</v>
       </c>
-      <c r="H18" s="6">
+      <c r="N18" s="6">
         <v>18618</v>
       </c>
-      <c r="I18" s="6">
+      <c r="O18" s="6">
         <v>21188</v>
       </c>
-      <c r="J18" s="6">
+      <c r="P18" s="6">
         <v>21511</v>
       </c>
-      <c r="K18" s="6">
+      <c r="Q18" s="6">
         <v>18907</v>
       </c>
-      <c r="L18" s="6">
+      <c r="R18" s="6">
         <v>14960</v>
       </c>
-      <c r="M18" s="6">
+      <c r="S18" s="6">
         <v>14207</v>
       </c>
-      <c r="N18" s="6">
+      <c r="T18" s="6">
         <v>11777</v>
       </c>
-      <c r="O18" s="6">
+      <c r="U18" s="6">
         <v>14997</v>
       </c>
-      <c r="P18" s="6">
+      <c r="V18" s="6">
         <v>17482</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="W18" s="6">
         <v>17573</v>
       </c>
-      <c r="R18" s="6">
+      <c r="X18" s="6">
         <v>46101</v>
       </c>
-      <c r="S18" s="6">
+      <c r="Y18" s="6">
         <v>56630</v>
       </c>
-      <c r="T18" s="6">
+      <c r="Z18" s="6">
         <v>59668</v>
       </c>
-      <c r="U18" s="6">
+      <c r="AA18" s="6">
         <v>64706</v>
       </c>
-      <c r="V18" s="6">
+      <c r="AB18" s="6">
         <v>53926</v>
       </c>
-      <c r="W18" s="6">
+      <c r="AC18" s="6">
         <v>68109</v>
       </c>
-      <c r="X18" s="6">
+      <c r="AD18" s="6">
         <v>51976</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="AE18" s="6">
         <v>69332</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="AF18" s="6">
         <v>59000</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
+        <v>2101</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1852</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1906</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2448</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2560</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2361</v>
+      </c>
+      <c r="H19" s="6">
         <v>1990</v>
       </c>
-      <c r="C19" s="6">
+      <c r="I19" s="6">
         <v>2262</v>
       </c>
-      <c r="D19" s="6">
+      <c r="J19" s="6">
         <v>2875</v>
       </c>
-      <c r="E19" s="6">
+      <c r="K19" s="6">
         <v>5820</v>
       </c>
-      <c r="F19" s="6">
+      <c r="L19" s="6">
         <v>5318</v>
       </c>
-      <c r="G19" s="6">
+      <c r="M19" s="6">
         <v>4720</v>
       </c>
-      <c r="H19" s="6">
+      <c r="N19" s="6">
         <v>4839</v>
       </c>
-      <c r="I19" s="6">
+      <c r="O19" s="6">
         <v>5179</v>
       </c>
-      <c r="J19" s="6">
+      <c r="P19" s="6">
         <v>5231</v>
       </c>
-      <c r="K19" s="6">
+      <c r="Q19" s="6">
         <v>6332</v>
       </c>
-      <c r="L19" s="6">
+      <c r="R19" s="6">
         <v>6368</v>
       </c>
-      <c r="M19" s="6">
+      <c r="S19" s="6">
         <v>7518</v>
       </c>
-      <c r="N19" s="6">
+      <c r="T19" s="6">
         <v>7704</v>
       </c>
-      <c r="O19" s="6">
+      <c r="U19" s="6">
         <v>8539</v>
       </c>
-      <c r="P19" s="6">
+      <c r="V19" s="6">
         <v>10951</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="W19" s="6">
         <v>13326</v>
       </c>
-      <c r="R19" s="6">
+      <c r="X19" s="6">
         <v>17079</v>
       </c>
-      <c r="S19" s="6">
+      <c r="Y19" s="6">
         <v>20824</v>
       </c>
-      <c r="T19" s="6">
+      <c r="Z19" s="6">
         <v>24256</v>
       </c>
-      <c r="U19" s="6">
+      <c r="AA19" s="6">
         <v>27729</v>
       </c>
-      <c r="V19" s="6">
+      <c r="AB19" s="6">
         <v>30391</v>
       </c>
-      <c r="W19" s="6">
+      <c r="AC19" s="6">
         <v>29248</v>
       </c>
-      <c r="X19" s="6">
+      <c r="AD19" s="6">
         <v>28353</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="AE19" s="6">
         <v>29922</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="AF19" s="6">
         <v>34934</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
+        <v>84898</v>
+      </c>
+      <c r="C20" s="5">
+        <v>69867</v>
+      </c>
+      <c r="D20" s="5">
+        <v>139530</v>
+      </c>
+      <c r="E20" s="5">
+        <v>266494</v>
+      </c>
+      <c r="F20" s="5">
+        <v>359349</v>
+      </c>
+      <c r="G20" s="5">
+        <v>364770</v>
+      </c>
+      <c r="H20" s="6">
         <v>373047</v>
       </c>
-      <c r="C20" s="6">
+      <c r="I20" s="6">
         <v>370040</v>
       </c>
-      <c r="D20" s="6">
+      <c r="J20" s="6">
         <v>342284</v>
       </c>
-      <c r="E20" s="6">
+      <c r="K20" s="6">
         <v>333446</v>
       </c>
-      <c r="F20" s="6">
+      <c r="L20" s="6">
         <v>372579</v>
       </c>
-      <c r="G20" s="6">
+      <c r="M20" s="6">
         <v>401307</v>
       </c>
-      <c r="H20" s="6">
+      <c r="N20" s="6">
         <v>570087</v>
       </c>
-      <c r="I20" s="6">
+      <c r="O20" s="6">
         <v>623704</v>
       </c>
-      <c r="J20" s="6">
+      <c r="P20" s="6">
         <v>668912</v>
       </c>
-      <c r="K20" s="6">
+      <c r="Q20" s="6">
         <v>683148</v>
       </c>
-      <c r="L20" s="6">
+      <c r="R20" s="6">
         <v>703001</v>
       </c>
-      <c r="M20" s="6">
+      <c r="S20" s="6">
         <v>655576</v>
       </c>
-      <c r="N20" s="6">
+      <c r="T20" s="6">
         <v>754798</v>
       </c>
-      <c r="O20" s="6">
+      <c r="U20" s="6">
         <v>757700</v>
       </c>
-      <c r="P20" s="6">
+      <c r="V20" s="6">
         <v>763535</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="W20" s="6">
         <v>770080</v>
       </c>
-      <c r="R20" s="6">
+      <c r="X20" s="6">
         <v>830786</v>
       </c>
-      <c r="S20" s="6">
+      <c r="Y20" s="6">
         <v>821110</v>
       </c>
-      <c r="T20" s="6">
+      <c r="Z20" s="6">
         <v>878304</v>
       </c>
-      <c r="U20" s="6">
+      <c r="AA20" s="6">
         <v>888857</v>
       </c>
-      <c r="V20" s="6">
+      <c r="AB20" s="6">
         <v>681329</v>
       </c>
-      <c r="W20" s="6">
+      <c r="AC20" s="6">
         <v>895088</v>
       </c>
-      <c r="X20" s="6">
+      <c r="AD20" s="6">
         <v>973946</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="AE20" s="6">
         <v>1119440</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="AF20" s="6">
         <v>1272085</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6">
         <v>28831</v>
       </c>
-      <c r="C21" s="6">
+      <c r="I21" s="6">
         <v>26163</v>
       </c>
-      <c r="D21" s="6">
+      <c r="J21" s="6">
         <v>26265</v>
       </c>
-      <c r="E21" s="6">
+      <c r="K21" s="6">
         <v>26954</v>
       </c>
-      <c r="F21" s="6">
+      <c r="L21" s="6">
         <v>27350</v>
       </c>
-      <c r="G21" s="6">
+      <c r="M21" s="6">
         <v>29346</v>
       </c>
-      <c r="H21" s="6">
+      <c r="N21" s="6">
         <v>41082</v>
       </c>
-      <c r="I21" s="6">
+      <c r="O21" s="6">
         <v>55022</v>
       </c>
-      <c r="J21" s="6">
+      <c r="P21" s="6">
         <v>58293</v>
       </c>
-      <c r="K21" s="6">
+      <c r="Q21" s="6">
         <v>62407</v>
       </c>
-      <c r="L21" s="6">
+      <c r="R21" s="6">
         <v>69173</v>
       </c>
-      <c r="M21" s="6">
+      <c r="S21" s="6">
         <v>70750</v>
       </c>
-      <c r="N21" s="6">
+      <c r="T21" s="6">
         <v>65343</v>
       </c>
-      <c r="O21" s="6">
+      <c r="U21" s="6">
         <v>71168</v>
       </c>
-      <c r="P21" s="6">
+      <c r="V21" s="6">
         <v>78230</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="W21" s="6">
         <v>78689</v>
       </c>
-      <c r="R21" s="6">
+      <c r="X21" s="6">
         <v>73682</v>
       </c>
-      <c r="S21" s="6">
+      <c r="Y21" s="6">
         <v>76861</v>
       </c>
-      <c r="T21" s="6">
+      <c r="Z21" s="6">
         <v>75431</v>
       </c>
-      <c r="U21" s="6">
+      <c r="AA21" s="6">
         <v>73215</v>
       </c>
-      <c r="V21" s="6">
+      <c r="AB21" s="6">
         <v>90997</v>
       </c>
-      <c r="W21" s="6">
+      <c r="AC21" s="6">
         <v>95455</v>
       </c>
-      <c r="X21" s="6">
+      <c r="AD21" s="6">
         <v>96730</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="AE21" s="6">
         <v>115464</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="AF21" s="6">
         <v>138659</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6">
         <v>638</v>
       </c>
-      <c r="C22" s="6">
+      <c r="I22" s="6">
         <v>569</v>
       </c>
-      <c r="D22" s="6">
+      <c r="J22" s="6">
         <v>583</v>
       </c>
-      <c r="E22" s="6">
+      <c r="K22" s="6">
         <v>641</v>
       </c>
-      <c r="F22" s="6">
+      <c r="L22" s="6">
         <v>855</v>
       </c>
-      <c r="G22" s="6">
+      <c r="M22" s="6">
         <v>1144</v>
       </c>
-      <c r="H22" s="6">
+      <c r="N22" s="6">
         <v>1554</v>
       </c>
-      <c r="I22" s="6">
+      <c r="O22" s="6">
         <v>2103</v>
       </c>
-      <c r="J22" s="6">
+      <c r="P22" s="6">
         <v>2095</v>
       </c>
-      <c r="K22" s="6">
+      <c r="Q22" s="6">
         <v>3087</v>
       </c>
-      <c r="L22" s="6">
+      <c r="R22" s="6">
         <v>3125</v>
       </c>
-      <c r="M22" s="6">
+      <c r="S22" s="6">
         <v>3243</v>
       </c>
-      <c r="N22" s="6">
+      <c r="T22" s="6">
         <v>3070</v>
       </c>
-      <c r="O22" s="6">
+      <c r="U22" s="6">
         <v>3243</v>
       </c>
-      <c r="P22" s="6">
+      <c r="V22" s="6">
         <v>3469</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="W22" s="6">
         <v>3347</v>
       </c>
-      <c r="R22" s="6">
+      <c r="X22" s="6">
         <v>3281</v>
       </c>
-      <c r="S22" s="6">
+      <c r="Y22" s="6">
         <v>3228</v>
       </c>
-      <c r="T22" s="6">
+      <c r="Z22" s="6">
         <v>3222</v>
       </c>
-      <c r="U22" s="6">
+      <c r="AA22" s="6">
         <v>3205</v>
       </c>
-      <c r="V22" s="6">
+      <c r="AB22" s="6">
         <v>3182</v>
       </c>
-      <c r="W22" s="6">
+      <c r="AC22" s="6">
         <v>3077</v>
       </c>
-      <c r="X22" s="6">
+      <c r="AD22" s="6">
         <v>2932</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="AE22" s="6">
         <v>3020</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="AF22" s="6">
         <v>3015</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
+        <v>210448</v>
+      </c>
+      <c r="C23" s="5">
+        <v>222832</v>
+      </c>
+      <c r="D23" s="5">
+        <v>228127</v>
+      </c>
+      <c r="E23" s="5">
+        <v>219031</v>
+      </c>
+      <c r="F23" s="5">
+        <v>208485</v>
+      </c>
+      <c r="G23" s="5">
+        <v>229404</v>
+      </c>
+      <c r="H23" s="6">
         <v>218602</v>
       </c>
-      <c r="C23" s="6">
+      <c r="I23" s="6">
         <v>249482</v>
       </c>
-      <c r="D23" s="6">
+      <c r="J23" s="6">
         <v>265943</v>
       </c>
-      <c r="E23" s="6">
+      <c r="K23" s="6">
         <v>275421</v>
       </c>
-      <c r="F23" s="6">
+      <c r="L23" s="6">
         <v>278221</v>
       </c>
-      <c r="G23" s="6">
+      <c r="M23" s="6">
         <v>296371</v>
       </c>
-      <c r="H23" s="6">
+      <c r="N23" s="6">
         <v>300287</v>
       </c>
-      <c r="I23" s="6">
+      <c r="O23" s="6">
         <v>319473</v>
       </c>
-      <c r="J23" s="6">
+      <c r="P23" s="6">
         <v>340598</v>
       </c>
-      <c r="K23" s="6">
+      <c r="Q23" s="6">
         <v>351759</v>
       </c>
-      <c r="L23" s="6">
+      <c r="R23" s="6">
         <v>349237</v>
       </c>
-      <c r="M23" s="6">
+      <c r="S23" s="6">
         <v>355143</v>
       </c>
-      <c r="N23" s="6">
+      <c r="T23" s="6">
         <v>335727</v>
       </c>
-      <c r="O23" s="6">
+      <c r="U23" s="6">
         <v>358655</v>
       </c>
-      <c r="P23" s="6">
+      <c r="V23" s="6">
         <v>368039</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="W23" s="6">
         <v>375708</v>
       </c>
-      <c r="R23" s="6">
+      <c r="X23" s="6">
         <v>367247</v>
       </c>
-      <c r="S23" s="6">
+      <c r="Y23" s="6">
         <v>389480</v>
       </c>
-      <c r="T23" s="6">
+      <c r="Z23" s="6">
         <v>430219</v>
       </c>
-      <c r="U23" s="6">
+      <c r="AA23" s="6">
         <v>440248</v>
       </c>
-      <c r="V23" s="6">
+      <c r="AB23" s="6">
         <v>457228</v>
       </c>
-      <c r="W23" s="6">
+      <c r="AC23" s="6">
         <v>430115</v>
       </c>
-      <c r="X23" s="6">
+      <c r="AD23" s="6">
         <v>420485</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="AE23" s="6">
         <v>395555</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="AF23" s="6">
         <v>403978</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
+        <v>34713</v>
+      </c>
+      <c r="C24" s="5">
+        <v>48363</v>
+      </c>
+      <c r="D24" s="5">
+        <v>47880</v>
+      </c>
+      <c r="E24" s="5">
+        <v>46914</v>
+      </c>
+      <c r="F24" s="5">
+        <v>50233</v>
+      </c>
+      <c r="G24" s="5">
+        <v>44246</v>
+      </c>
+      <c r="H24" s="6">
         <v>52730</v>
       </c>
-      <c r="C24" s="6">
+      <c r="I24" s="6">
         <v>55823</v>
       </c>
-      <c r="D24" s="6">
+      <c r="J24" s="6">
         <v>55639</v>
       </c>
-      <c r="E24" s="6">
+      <c r="K24" s="6">
         <v>57684</v>
       </c>
-      <c r="F24" s="6">
+      <c r="L24" s="6">
         <v>61132</v>
       </c>
-      <c r="G24" s="6">
+      <c r="M24" s="6">
         <v>75705</v>
       </c>
-      <c r="H24" s="6">
+      <c r="N24" s="6">
         <v>81969</v>
       </c>
-      <c r="I24" s="6">
+      <c r="O24" s="6">
         <v>87399</v>
       </c>
-      <c r="J24" s="6">
+      <c r="P24" s="6">
         <v>96935</v>
       </c>
-      <c r="K24" s="6">
+      <c r="Q24" s="6">
         <v>112867</v>
       </c>
-      <c r="L24" s="6">
+      <c r="R24" s="6">
         <v>118897</v>
       </c>
-      <c r="M24" s="6">
+      <c r="S24" s="6">
         <v>119866</v>
       </c>
-      <c r="N24" s="6">
+      <c r="T24" s="6">
         <v>117570</v>
       </c>
-      <c r="O24" s="6">
+      <c r="U24" s="6">
         <v>130333</v>
       </c>
-      <c r="P24" s="6">
+      <c r="V24" s="6">
         <v>136384</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="W24" s="6">
         <v>133453</v>
       </c>
-      <c r="R24" s="6">
+      <c r="X24" s="6">
         <v>145857</v>
       </c>
-      <c r="S24" s="6">
+      <c r="Y24" s="6">
         <v>157616</v>
       </c>
-      <c r="T24" s="6">
+      <c r="Z24" s="6">
         <v>160411</v>
       </c>
-      <c r="U24" s="6">
+      <c r="AA24" s="6">
         <v>153499</v>
       </c>
-      <c r="V24" s="6">
+      <c r="AB24" s="6">
         <v>141104</v>
       </c>
-      <c r="W24" s="6">
+      <c r="AC24" s="6">
         <v>174765</v>
       </c>
-      <c r="X24" s="6">
+      <c r="AD24" s="6">
         <v>154263</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="AE24" s="6">
         <v>139915</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="AF24" s="6">
         <v>129815</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6">
         <v>2073</v>
       </c>
-      <c r="C25" s="6">
+      <c r="I25" s="6">
         <v>2834</v>
       </c>
-      <c r="D25" s="6">
+      <c r="J25" s="6">
         <v>2881</v>
       </c>
-      <c r="E25" s="6">
+      <c r="K25" s="6">
         <v>4113</v>
       </c>
-      <c r="F25" s="6">
+      <c r="L25" s="6">
         <v>4746</v>
       </c>
-      <c r="G25" s="6">
+      <c r="M25" s="6">
         <v>5325</v>
       </c>
-      <c r="H25" s="6">
+      <c r="N25" s="6">
         <v>7134</v>
       </c>
-      <c r="I25" s="6">
+      <c r="O25" s="6">
         <v>9680</v>
       </c>
-      <c r="J25" s="6">
+      <c r="P25" s="6">
         <v>11815</v>
       </c>
-      <c r="K25" s="6">
+      <c r="Q25" s="6">
         <v>39514</v>
       </c>
-      <c r="L25" s="6">
+      <c r="R25" s="6">
         <v>55631</v>
       </c>
-      <c r="M25" s="6">
+      <c r="S25" s="6">
         <v>48034</v>
       </c>
-      <c r="N25" s="6">
+      <c r="T25" s="6">
         <v>46550</v>
       </c>
-      <c r="O25" s="6">
+      <c r="U25" s="6">
         <v>41440</v>
       </c>
-      <c r="P25" s="6">
+      <c r="V25" s="6">
         <v>42060</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="W25" s="6">
         <v>45667</v>
       </c>
-      <c r="R25" s="6">
+      <c r="X25" s="6">
         <v>45452</v>
       </c>
-      <c r="S25" s="6">
+      <c r="Y25" s="6">
         <v>47522</v>
       </c>
-      <c r="T25" s="6">
+      <c r="Z25" s="6">
         <v>52586</v>
       </c>
-      <c r="U25" s="6">
+      <c r="AA25" s="6">
         <v>41137</v>
       </c>
-      <c r="V25" s="6">
+      <c r="AB25" s="6">
         <v>50365</v>
       </c>
-      <c r="W25" s="6">
+      <c r="AC25" s="6">
         <v>42970</v>
       </c>
-      <c r="X25" s="6">
+      <c r="AD25" s="6">
         <v>43600</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="AE25" s="6">
         <v>41939</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AF25" s="6">
         <v>45525</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6">
         <v>82</v>
       </c>
-      <c r="C26" s="6">
+      <c r="I26" s="6">
         <v>82</v>
       </c>
-      <c r="D26" s="6">
+      <c r="J26" s="6">
         <v>119</v>
       </c>
-      <c r="E26" s="6">
+      <c r="K26" s="6">
         <v>287</v>
       </c>
-      <c r="F26" s="6">
+      <c r="L26" s="6">
         <v>380</v>
       </c>
-      <c r="G26" s="6">
+      <c r="M26" s="6">
         <v>503</v>
       </c>
-      <c r="H26" s="6">
+      <c r="N26" s="6">
         <v>657</v>
       </c>
-      <c r="I26" s="6">
+      <c r="O26" s="6">
         <v>874</v>
       </c>
-      <c r="J26" s="6">
+      <c r="P26" s="6">
         <v>777</v>
       </c>
-      <c r="K26" s="6">
+      <c r="Q26" s="6">
         <v>4952</v>
       </c>
-      <c r="L26" s="6">
+      <c r="R26" s="6">
         <v>5097</v>
       </c>
-      <c r="M26" s="6">
+      <c r="S26" s="6">
         <v>5003</v>
       </c>
-      <c r="N26" s="6">
+      <c r="T26" s="6">
         <v>5936</v>
       </c>
-      <c r="O26" s="6">
+      <c r="U26" s="6">
         <v>4507</v>
       </c>
-      <c r="P26" s="6">
+      <c r="V26" s="6">
         <v>3776</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="W26" s="6">
         <v>3533</v>
       </c>
-      <c r="R26" s="6">
+      <c r="X26" s="6">
         <v>2217</v>
       </c>
-      <c r="S26" s="6">
+      <c r="Y26" s="6">
         <v>2023</v>
       </c>
-      <c r="T26" s="6">
+      <c r="Z26" s="6">
         <v>1779</v>
       </c>
-      <c r="U26" s="6">
+      <c r="AA26" s="6">
         <v>674</v>
       </c>
-      <c r="V26" s="6">
+      <c r="AB26" s="6">
         <v>710</v>
       </c>
-      <c r="W26" s="6">
+      <c r="AC26" s="6">
         <v>634</v>
       </c>
-      <c r="X26" s="6">
+      <c r="AD26" s="6">
         <v>925</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="AE26" s="6">
         <v>404</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AF26" s="6">
         <v>537</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B27" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C27" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="6" t="s">
         <v>29</v>
       </c>
@@ -2849,1529 +3116,1823 @@
       <c r="Z27" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6">
         <v>811882</v>
       </c>
-      <c r="C28" s="6">
+      <c r="I28" s="6">
         <v>847195</v>
       </c>
-      <c r="D28" s="6">
+      <c r="J28" s="6">
         <v>850580</v>
       </c>
-      <c r="E28" s="6">
+      <c r="K28" s="6">
         <v>857736</v>
       </c>
-      <c r="F28" s="6">
+      <c r="L28" s="6">
         <v>898107</v>
       </c>
-      <c r="G28" s="6">
+      <c r="M28" s="6">
         <v>952733</v>
       </c>
-      <c r="H28" s="6">
+      <c r="N28" s="6">
         <v>1171992</v>
       </c>
-      <c r="I28" s="6">
+      <c r="O28" s="6">
         <v>1278117</v>
       </c>
-      <c r="J28" s="6">
+      <c r="P28" s="6">
         <v>1367523</v>
       </c>
-      <c r="K28" s="6">
+      <c r="Q28" s="6">
         <v>1469246</v>
       </c>
-      <c r="L28" s="6">
+      <c r="R28" s="6">
         <v>1506204</v>
       </c>
-      <c r="M28" s="6">
+      <c r="S28" s="6">
         <v>1451841</v>
       </c>
-      <c r="N28" s="6">
+      <c r="T28" s="6">
         <v>1514801</v>
       </c>
-      <c r="O28" s="6">
+      <c r="U28" s="6">
         <v>1553527</v>
       </c>
-      <c r="P28" s="6">
+      <c r="V28" s="6">
         <v>1579272</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="W28" s="6">
         <v>1597959</v>
       </c>
-      <c r="R28" s="6">
+      <c r="X28" s="6">
         <v>1690713</v>
       </c>
-      <c r="S28" s="6">
+      <c r="Y28" s="6">
         <v>1741890</v>
       </c>
-      <c r="T28" s="6">
+      <c r="Z28" s="6">
         <v>1841862</v>
       </c>
-      <c r="U28" s="6">
+      <c r="AA28" s="6">
         <v>1848914</v>
       </c>
-      <c r="V28" s="6">
+      <c r="AB28" s="6">
         <v>1669699</v>
       </c>
-      <c r="W28" s="6">
+      <c r="AC28" s="6">
         <v>1893290</v>
       </c>
-      <c r="X28" s="6">
+      <c r="AD28" s="6">
         <v>1922809</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="AE28" s="6">
         <v>2065064</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="AF28" s="6">
         <v>2243364</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="14"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="16"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
+        <v>795</v>
+      </c>
+      <c r="C30" s="5">
+        <v>924</v>
+      </c>
+      <c r="D30" s="5">
+        <v>858</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1244</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1146</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2571</v>
+      </c>
+      <c r="H30" s="6">
         <v>4479</v>
       </c>
-      <c r="C30" s="6">
+      <c r="I30" s="6">
         <v>4479</v>
       </c>
-      <c r="D30" s="6">
+      <c r="J30" s="6">
         <v>9950</v>
       </c>
-      <c r="E30" s="6">
+      <c r="K30" s="6">
         <v>9306</v>
       </c>
-      <c r="F30" s="6">
+      <c r="L30" s="6">
         <v>6975</v>
       </c>
-      <c r="G30" s="6">
+      <c r="M30" s="6">
         <v>8596</v>
       </c>
-      <c r="H30" s="6">
+      <c r="N30" s="6">
         <v>12020</v>
       </c>
-      <c r="I30" s="6">
+      <c r="O30" s="6">
         <v>17470</v>
       </c>
-      <c r="J30" s="6">
+      <c r="P30" s="6">
         <v>16342</v>
       </c>
-      <c r="K30" s="6">
+      <c r="Q30" s="6">
         <v>21407</v>
       </c>
-      <c r="L30" s="6">
+      <c r="R30" s="6">
         <v>21272</v>
       </c>
-      <c r="M30" s="6">
+      <c r="S30" s="6">
         <v>25809</v>
       </c>
-      <c r="N30" s="6">
+      <c r="T30" s="6">
         <v>17634</v>
       </c>
-      <c r="O30" s="6">
+      <c r="U30" s="6">
         <v>21231</v>
       </c>
-      <c r="P30" s="6">
+      <c r="V30" s="6">
         <v>18732</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="W30" s="6">
         <v>16270</v>
       </c>
-      <c r="R30" s="6">
+      <c r="X30" s="6">
         <v>16524</v>
       </c>
-      <c r="S30" s="6">
+      <c r="Y30" s="6">
         <v>13642</v>
       </c>
-      <c r="T30" s="6">
+      <c r="Z30" s="6">
         <v>12413</v>
       </c>
-      <c r="U30" s="6">
+      <c r="AA30" s="6">
         <v>12007</v>
       </c>
-      <c r="V30" s="6">
+      <c r="AB30" s="6">
         <v>14918</v>
       </c>
-      <c r="W30" s="6">
+      <c r="AC30" s="6">
         <v>16061</v>
       </c>
-      <c r="X30" s="6">
+      <c r="AD30" s="6">
         <v>14751</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="AE30" s="6">
         <v>14924</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="AF30" s="6">
         <v>18666</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
+        <v>168199</v>
+      </c>
+      <c r="C31" s="5">
+        <v>205494</v>
+      </c>
+      <c r="D31" s="5">
+        <v>220302</v>
+      </c>
+      <c r="E31" s="5">
+        <v>245529</v>
+      </c>
+      <c r="F31" s="5">
+        <v>253061</v>
+      </c>
+      <c r="G31" s="5">
+        <v>251497</v>
+      </c>
+      <c r="H31" s="6">
         <v>268935</v>
       </c>
-      <c r="C31" s="6">
+      <c r="I31" s="6">
         <v>278160</v>
       </c>
-      <c r="D31" s="6">
+      <c r="J31" s="6">
         <v>284197</v>
       </c>
-      <c r="E31" s="6">
+      <c r="K31" s="6">
         <v>293198</v>
       </c>
-      <c r="F31" s="6">
+      <c r="L31" s="6">
         <v>333948</v>
       </c>
-      <c r="G31" s="6">
+      <c r="M31" s="6">
         <v>383995</v>
       </c>
-      <c r="H31" s="6">
+      <c r="N31" s="6">
         <v>427471</v>
       </c>
-      <c r="I31" s="6">
+      <c r="O31" s="6">
         <v>491856</v>
       </c>
-      <c r="J31" s="6">
+      <c r="P31" s="6">
         <v>458932</v>
       </c>
-      <c r="K31" s="6">
+      <c r="Q31" s="6">
         <v>525820</v>
       </c>
-      <c r="L31" s="6">
+      <c r="R31" s="6">
         <v>558938</v>
       </c>
-      <c r="M31" s="6">
+      <c r="S31" s="6">
         <v>634912</v>
       </c>
-      <c r="N31" s="6">
+      <c r="T31" s="6">
         <v>616276</v>
       </c>
-      <c r="O31" s="6">
+      <c r="U31" s="6">
         <v>623876</v>
       </c>
-      <c r="P31" s="6">
+      <c r="V31" s="6">
         <v>619130</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="W31" s="6">
         <v>601080</v>
       </c>
-      <c r="R31" s="6">
+      <c r="X31" s="6">
         <v>603569</v>
       </c>
-      <c r="S31" s="6">
+      <c r="Y31" s="6">
         <v>591318</v>
       </c>
-      <c r="T31" s="6">
+      <c r="Z31" s="6">
         <v>542139</v>
       </c>
-      <c r="U31" s="6">
+      <c r="AA31" s="6">
         <v>532591</v>
       </c>
-      <c r="V31" s="6">
+      <c r="AB31" s="6">
         <v>559793</v>
       </c>
-      <c r="W31" s="6">
+      <c r="AC31" s="6">
         <v>547170</v>
       </c>
-      <c r="X31" s="6">
+      <c r="AD31" s="6">
         <v>610644</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="AE31" s="6">
         <v>592084</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="AF31" s="6">
         <v>618360</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
+        <v>1562</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1697</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1796</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1704</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1667</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2053</v>
+      </c>
+      <c r="H32" s="6">
         <v>4428</v>
       </c>
-      <c r="C32" s="6">
+      <c r="I32" s="6">
         <v>4428</v>
       </c>
-      <c r="D32" s="6">
+      <c r="J32" s="6">
         <v>6279</v>
       </c>
-      <c r="E32" s="6">
+      <c r="K32" s="6">
         <v>6779</v>
       </c>
-      <c r="F32" s="6">
+      <c r="L32" s="6">
         <v>6803</v>
       </c>
-      <c r="G32" s="6">
+      <c r="M32" s="6">
         <v>6503</v>
       </c>
-      <c r="H32" s="6">
+      <c r="N32" s="6">
         <v>6427</v>
       </c>
-      <c r="I32" s="6">
+      <c r="O32" s="6">
         <v>10362</v>
       </c>
-      <c r="J32" s="6">
+      <c r="P32" s="6">
         <v>7985</v>
       </c>
-      <c r="K32" s="6">
+      <c r="Q32" s="6">
         <v>10559</v>
       </c>
-      <c r="L32" s="6">
+      <c r="R32" s="6">
         <v>10827</v>
       </c>
-      <c r="M32" s="6">
+      <c r="S32" s="6">
         <v>9855</v>
       </c>
-      <c r="N32" s="6">
+      <c r="T32" s="6">
         <v>10134</v>
       </c>
-      <c r="O32" s="6">
+      <c r="U32" s="6">
         <v>10907</v>
       </c>
-      <c r="P32" s="6">
+      <c r="V32" s="6">
         <v>11803</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="W32" s="6">
         <v>11272</v>
       </c>
-      <c r="R32" s="6">
+      <c r="X32" s="6">
         <v>11262</v>
       </c>
-      <c r="S32" s="6">
+      <c r="Y32" s="6">
         <v>13890</v>
       </c>
-      <c r="T32" s="6">
+      <c r="Z32" s="6">
         <v>15187</v>
       </c>
-      <c r="U32" s="6">
+      <c r="AA32" s="6">
         <v>12449</v>
       </c>
-      <c r="V32" s="6">
+      <c r="AB32" s="6">
         <v>18694</v>
       </c>
-      <c r="W32" s="6">
+      <c r="AC32" s="6">
         <v>23387</v>
       </c>
-      <c r="X32" s="6">
+      <c r="AD32" s="6">
         <v>21139</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="AE32" s="6">
         <v>20659</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="AF32" s="6">
         <v>27802</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
+        <v>1307</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1426</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1603</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1682</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1660</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1739</v>
+      </c>
+      <c r="H33" s="6">
         <v>2826</v>
       </c>
-      <c r="C33" s="6">
+      <c r="I33" s="6">
         <v>2845</v>
       </c>
-      <c r="D33" s="6">
+      <c r="J33" s="6">
         <v>2863</v>
       </c>
-      <c r="E33" s="6">
+      <c r="K33" s="6">
         <v>2830</v>
       </c>
-      <c r="F33" s="6">
+      <c r="L33" s="6">
         <v>2794</v>
       </c>
-      <c r="G33" s="6">
+      <c r="M33" s="6">
         <v>2614</v>
       </c>
-      <c r="H33" s="6">
+      <c r="N33" s="6">
         <v>2697</v>
       </c>
-      <c r="I33" s="6">
+      <c r="O33" s="6">
         <v>2651</v>
       </c>
-      <c r="J33" s="6">
+      <c r="P33" s="6">
         <v>2635</v>
       </c>
-      <c r="K33" s="6">
+      <c r="Q33" s="6">
         <v>2696</v>
       </c>
-      <c r="L33" s="6">
+      <c r="R33" s="6">
         <v>2831</v>
       </c>
-      <c r="M33" s="6">
+      <c r="S33" s="6">
         <v>2883</v>
       </c>
-      <c r="N33" s="6">
+      <c r="T33" s="6">
         <v>3322</v>
       </c>
-      <c r="O33" s="6">
+      <c r="U33" s="6">
         <v>3040</v>
       </c>
-      <c r="P33" s="6">
+      <c r="V33" s="6">
         <v>3264</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="W33" s="6">
         <v>3356</v>
       </c>
-      <c r="R33" s="6">
+      <c r="X33" s="6">
         <v>3505</v>
       </c>
-      <c r="S33" s="6">
+      <c r="Y33" s="6">
         <v>3284</v>
       </c>
-      <c r="T33" s="6">
+      <c r="Z33" s="6">
         <v>3423</v>
       </c>
-      <c r="U33" s="6">
+      <c r="AA33" s="6">
         <v>3463</v>
       </c>
-      <c r="V33" s="6">
+      <c r="AB33" s="6">
         <v>3628</v>
       </c>
-      <c r="W33" s="6">
+      <c r="AC33" s="6">
         <v>3562</v>
       </c>
-      <c r="X33" s="6">
+      <c r="AD33" s="6">
         <v>3404</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="AE33" s="6">
         <v>3559</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="AF33" s="6">
         <v>3610</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6">
         <v>280667</v>
       </c>
-      <c r="C34" s="6">
+      <c r="I34" s="6">
         <v>289911</v>
       </c>
-      <c r="D34" s="6">
+      <c r="J34" s="6">
         <v>303290</v>
       </c>
-      <c r="E34" s="6">
+      <c r="K34" s="6">
         <v>312113</v>
       </c>
-      <c r="F34" s="6">
+      <c r="L34" s="6">
         <v>350521</v>
       </c>
-      <c r="G34" s="6">
+      <c r="M34" s="6">
         <v>401707</v>
       </c>
-      <c r="H34" s="6">
+      <c r="N34" s="6">
         <v>448615</v>
       </c>
-      <c r="I34" s="6">
+      <c r="O34" s="6">
         <v>522338</v>
       </c>
-      <c r="J34" s="6">
+      <c r="P34" s="6">
         <v>485894</v>
       </c>
-      <c r="K34" s="6">
+      <c r="Q34" s="6">
         <v>560482</v>
       </c>
-      <c r="L34" s="6">
+      <c r="R34" s="6">
         <v>593868</v>
       </c>
-      <c r="M34" s="6">
+      <c r="S34" s="6">
         <v>673459</v>
       </c>
-      <c r="N34" s="6">
+      <c r="T34" s="6">
         <v>647367</v>
       </c>
-      <c r="O34" s="6">
+      <c r="U34" s="6">
         <v>659055</v>
       </c>
-      <c r="P34" s="6">
+      <c r="V34" s="6">
         <v>652929</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="W34" s="6">
         <v>631978</v>
       </c>
-      <c r="R34" s="6">
+      <c r="X34" s="6">
         <v>634860</v>
       </c>
-      <c r="S34" s="6">
+      <c r="Y34" s="6">
         <v>622133</v>
       </c>
-      <c r="T34" s="6">
+      <c r="Z34" s="6">
         <v>573162</v>
       </c>
-      <c r="U34" s="6">
+      <c r="AA34" s="6">
         <v>560510</v>
       </c>
-      <c r="V34" s="6">
+      <c r="AB34" s="6">
         <v>597033</v>
       </c>
-      <c r="W34" s="6">
+      <c r="AC34" s="6">
         <v>590180</v>
       </c>
-      <c r="X34" s="6">
+      <c r="AD34" s="6">
         <v>649938</v>
       </c>
-      <c r="Y34" s="6">
+      <c r="AE34" s="6">
         <v>631226</v>
       </c>
-      <c r="Z34" s="6">
+      <c r="AF34" s="6">
         <v>668439</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="14"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="16"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
+        <v>334</v>
+      </c>
+      <c r="C36" s="5">
+        <v>620</v>
+      </c>
+      <c r="D36" s="5">
+        <v>649</v>
+      </c>
+      <c r="E36" s="5">
+        <v>686</v>
+      </c>
+      <c r="F36" s="5">
+        <v>487</v>
+      </c>
+      <c r="G36" s="5">
+        <v>482</v>
+      </c>
+      <c r="H36" s="6">
         <v>6098</v>
       </c>
-      <c r="C36" s="6">
+      <c r="I36" s="6">
         <v>6111</v>
       </c>
-      <c r="D36" s="6">
+      <c r="J36" s="6">
         <v>5916</v>
       </c>
-      <c r="E36" s="6">
+      <c r="K36" s="6">
         <v>5116</v>
       </c>
-      <c r="F36" s="6">
+      <c r="L36" s="6">
         <v>4778</v>
       </c>
-      <c r="G36" s="6">
+      <c r="M36" s="6">
         <v>4406</v>
       </c>
-      <c r="H36" s="6">
+      <c r="N36" s="6">
         <v>5975</v>
       </c>
-      <c r="I36" s="6">
+      <c r="O36" s="6">
         <v>6170</v>
       </c>
-      <c r="J36" s="6">
+      <c r="P36" s="6">
         <v>6332</v>
       </c>
-      <c r="K36" s="6">
+      <c r="Q36" s="6">
         <v>7424</v>
       </c>
-      <c r="L36" s="6">
+      <c r="R36" s="6">
         <v>6112</v>
       </c>
-      <c r="M36" s="6">
+      <c r="S36" s="6">
         <v>5831</v>
       </c>
-      <c r="N36" s="6">
+      <c r="T36" s="6">
         <v>5881</v>
       </c>
-      <c r="O36" s="6">
+      <c r="U36" s="6">
         <v>6016</v>
       </c>
-      <c r="P36" s="6">
+      <c r="V36" s="6">
         <v>6648</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="W36" s="6">
         <v>6536</v>
       </c>
-      <c r="R36" s="6">
+      <c r="X36" s="6">
         <v>6246</v>
       </c>
-      <c r="S36" s="6">
+      <c r="Y36" s="6">
         <v>6013</v>
       </c>
-      <c r="T36" s="6">
+      <c r="Z36" s="6">
         <v>5864</v>
       </c>
-      <c r="U36" s="6">
+      <c r="AA36" s="6">
         <v>5182</v>
       </c>
-      <c r="V36" s="6">
+      <c r="AB36" s="6">
         <v>4799</v>
       </c>
-      <c r="W36" s="6">
+      <c r="AC36" s="6">
         <v>4613</v>
       </c>
-      <c r="X36" s="6">
+      <c r="AD36" s="6">
         <v>4855</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="AE36" s="6">
         <v>4711</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="AF36" s="6">
         <v>5280</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
+        <v>147</v>
+      </c>
+      <c r="C37" s="5">
+        <v>169</v>
+      </c>
+      <c r="D37" s="5">
+        <v>70</v>
+      </c>
+      <c r="E37" s="5">
+        <v>162</v>
+      </c>
+      <c r="F37" s="5">
+        <v>154</v>
+      </c>
+      <c r="G37" s="5">
+        <v>159</v>
+      </c>
+      <c r="H37" s="6">
         <v>129</v>
       </c>
-      <c r="C37" s="6">
+      <c r="I37" s="6">
         <v>135</v>
       </c>
-      <c r="D37" s="6">
+      <c r="J37" s="6">
         <v>139</v>
       </c>
-      <c r="E37" s="6">
+      <c r="K37" s="6">
         <v>139</v>
       </c>
-      <c r="F37" s="6">
+      <c r="L37" s="6">
         <v>128</v>
       </c>
-      <c r="G37" s="6">
+      <c r="M37" s="6">
         <v>120</v>
       </c>
-      <c r="H37" s="6">
+      <c r="N37" s="6">
         <v>110</v>
       </c>
-      <c r="I37" s="6">
+      <c r="O37" s="6">
         <v>104</v>
       </c>
-      <c r="J37" s="6">
+      <c r="P37" s="6">
         <v>781</v>
       </c>
-      <c r="K37" s="6">
+      <c r="Q37" s="6">
         <v>6770</v>
       </c>
-      <c r="L37" s="6">
+      <c r="R37" s="6">
         <v>7466</v>
       </c>
-      <c r="M37" s="6">
+      <c r="S37" s="6">
         <v>7879</v>
       </c>
-      <c r="N37" s="6">
+      <c r="T37" s="6">
         <v>15781</v>
       </c>
-      <c r="O37" s="6">
+      <c r="U37" s="6">
         <v>16980</v>
       </c>
-      <c r="P37" s="6">
+      <c r="V37" s="6">
         <v>13319</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="W37" s="6">
         <v>11024</v>
       </c>
-      <c r="R37" s="6">
+      <c r="X37" s="6">
         <v>10585</v>
       </c>
-      <c r="S37" s="6">
+      <c r="Y37" s="6">
         <v>27529</v>
       </c>
-      <c r="T37" s="6">
+      <c r="Z37" s="6">
         <v>27429</v>
       </c>
-      <c r="U37" s="6">
+      <c r="AA37" s="6">
         <v>31381</v>
       </c>
-      <c r="V37" s="6">
+      <c r="AB37" s="6">
         <v>50313</v>
       </c>
-      <c r="W37" s="6">
+      <c r="AC37" s="6">
         <v>47751</v>
       </c>
-      <c r="X37" s="6">
+      <c r="AD37" s="6">
         <v>42285</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="AE37" s="6">
         <v>43084</v>
       </c>
-      <c r="Z37" s="6">
+      <c r="AF37" s="6">
         <v>45989</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6">
         <v>75</v>
       </c>
-      <c r="C38" s="6">
+      <c r="I38" s="6">
         <v>73</v>
       </c>
-      <c r="D38" s="6">
+      <c r="J38" s="6">
         <v>70</v>
-      </c>
-      <c r="E38" s="6">
-        <v>64</v>
-      </c>
-      <c r="F38" s="6">
-        <v>58</v>
-      </c>
-      <c r="G38" s="6">
-        <v>55</v>
-      </c>
-      <c r="H38" s="6">
-        <v>55</v>
-      </c>
-      <c r="I38" s="6">
-        <v>56</v>
-      </c>
-      <c r="J38" s="6">
-        <v>57</v>
       </c>
       <c r="K38" s="6">
         <v>64</v>
       </c>
       <c r="L38" s="6">
+        <v>58</v>
+      </c>
+      <c r="M38" s="6">
+        <v>55</v>
+      </c>
+      <c r="N38" s="6">
+        <v>55</v>
+      </c>
+      <c r="O38" s="6">
+        <v>56</v>
+      </c>
+      <c r="P38" s="6">
+        <v>57</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>64</v>
+      </c>
+      <c r="R38" s="6">
         <v>222</v>
       </c>
-      <c r="M38" s="6">
+      <c r="S38" s="6">
         <v>554</v>
       </c>
-      <c r="N38" s="6">
+      <c r="T38" s="6">
         <v>842</v>
       </c>
-      <c r="O38" s="6">
+      <c r="U38" s="6">
         <v>971</v>
       </c>
-      <c r="P38" s="6">
+      <c r="V38" s="6">
         <v>949</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="W38" s="6">
         <v>1016</v>
       </c>
-      <c r="R38" s="6">
+      <c r="X38" s="6">
         <v>1268</v>
       </c>
-      <c r="S38" s="6">
+      <c r="Y38" s="6">
         <v>1294</v>
       </c>
-      <c r="T38" s="6">
+      <c r="Z38" s="6">
         <v>1232</v>
       </c>
-      <c r="U38" s="6">
+      <c r="AA38" s="6">
         <v>1426</v>
       </c>
-      <c r="V38" s="6">
+      <c r="AB38" s="6">
         <v>1658</v>
       </c>
-      <c r="W38" s="6">
+      <c r="AC38" s="6">
         <v>1516</v>
       </c>
-      <c r="X38" s="6">
+      <c r="AD38" s="6">
         <v>1602</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="AE38" s="6">
         <v>1684</v>
       </c>
-      <c r="Z38" s="6">
+      <c r="AF38" s="6">
         <v>1682</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="6">
-        <v>2</v>
-      </c>
-      <c r="C39" s="6">
-        <v>2</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2</v>
-      </c>
-      <c r="E39" s="6">
-        <v>2</v>
-      </c>
-      <c r="F39" s="6">
-        <v>2</v>
-      </c>
-      <c r="G39" s="6">
-        <v>2</v>
+      <c r="B39" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2.8</v>
       </c>
       <c r="H39" s="6">
         <v>2</v>
       </c>
       <c r="I39" s="6">
+        <v>2</v>
+      </c>
+      <c r="J39" s="6">
+        <v>2</v>
+      </c>
+      <c r="K39" s="6">
+        <v>2</v>
+      </c>
+      <c r="L39" s="6">
+        <v>2</v>
+      </c>
+      <c r="M39" s="6">
+        <v>2</v>
+      </c>
+      <c r="N39" s="6">
+        <v>2</v>
+      </c>
+      <c r="O39" s="6">
         <v>1</v>
       </c>
-      <c r="J39" s="6">
+      <c r="P39" s="6">
         <v>10</v>
       </c>
-      <c r="K39" s="6">
+      <c r="Q39" s="6">
         <v>130</v>
       </c>
-      <c r="L39" s="6">
+      <c r="R39" s="6">
         <v>100</v>
       </c>
-      <c r="M39" s="6">
+      <c r="S39" s="6">
         <v>69</v>
       </c>
-      <c r="N39" s="6">
+      <c r="T39" s="6">
         <v>156</v>
       </c>
-      <c r="O39" s="6">
+      <c r="U39" s="6">
         <v>216</v>
       </c>
-      <c r="P39" s="6">
+      <c r="V39" s="6">
         <v>224</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="W39" s="6">
         <v>174</v>
       </c>
-      <c r="R39" s="6">
+      <c r="X39" s="6">
         <v>169</v>
       </c>
-      <c r="S39" s="6">
+      <c r="Y39" s="6">
         <v>390</v>
       </c>
-      <c r="T39" s="6">
+      <c r="Z39" s="6">
         <v>371</v>
       </c>
-      <c r="U39" s="6">
+      <c r="AA39" s="6">
         <v>397</v>
       </c>
-      <c r="V39" s="6">
+      <c r="AB39" s="6">
         <v>652</v>
       </c>
-      <c r="W39" s="6">
+      <c r="AC39" s="6">
         <v>671</v>
       </c>
-      <c r="X39" s="6">
+      <c r="AD39" s="6">
         <v>545</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="AE39" s="6">
         <v>497</v>
       </c>
-      <c r="Z39" s="6">
+      <c r="AF39" s="6">
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="D40" s="5">
         <v>3</v>
       </c>
-      <c r="C40" s="6">
-        <v>4</v>
-      </c>
-      <c r="D40" s="6">
-        <v>4</v>
-      </c>
-      <c r="E40" s="6">
-        <v>4</v>
-      </c>
-      <c r="F40" s="6">
-        <v>3</v>
-      </c>
-      <c r="G40" s="6">
-        <v>3</v>
+      <c r="E40" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>3.3</v>
       </c>
       <c r="H40" s="6">
         <v>3</v>
       </c>
       <c r="I40" s="6">
+        <v>4</v>
+      </c>
+      <c r="J40" s="6">
+        <v>4</v>
+      </c>
+      <c r="K40" s="6">
+        <v>4</v>
+      </c>
+      <c r="L40" s="6">
         <v>3</v>
       </c>
-      <c r="J40" s="6">
+      <c r="M40" s="6">
+        <v>3</v>
+      </c>
+      <c r="N40" s="6">
+        <v>3</v>
+      </c>
+      <c r="O40" s="6">
+        <v>3</v>
+      </c>
+      <c r="P40" s="6">
         <v>21</v>
       </c>
-      <c r="K40" s="6">
+      <c r="Q40" s="6">
         <v>162</v>
       </c>
-      <c r="L40" s="6">
+      <c r="R40" s="6">
         <v>130</v>
       </c>
-      <c r="M40" s="6">
+      <c r="S40" s="6">
         <v>124</v>
       </c>
-      <c r="N40" s="6">
+      <c r="T40" s="6">
         <v>181</v>
       </c>
-      <c r="O40" s="6">
+      <c r="U40" s="6">
         <v>172</v>
       </c>
-      <c r="P40" s="6">
+      <c r="V40" s="6">
         <v>128</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="W40" s="6">
         <v>116</v>
       </c>
-      <c r="R40" s="6">
+      <c r="X40" s="6">
         <v>104</v>
       </c>
-      <c r="S40" s="6">
+      <c r="Y40" s="6">
         <v>317</v>
       </c>
-      <c r="T40" s="6">
+      <c r="Z40" s="6">
         <v>326</v>
       </c>
-      <c r="U40" s="6">
+      <c r="AA40" s="6">
         <v>371</v>
       </c>
-      <c r="V40" s="6">
+      <c r="AB40" s="6">
         <v>613</v>
       </c>
-      <c r="W40" s="6">
+      <c r="AC40" s="6">
         <v>757</v>
       </c>
-      <c r="X40" s="6">
+      <c r="AD40" s="6">
         <v>753</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="AE40" s="6">
         <v>761</v>
       </c>
-      <c r="Z40" s="6">
+      <c r="AF40" s="6">
         <v>777</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
+        <v>321</v>
+      </c>
+      <c r="C41" s="5">
+        <v>817</v>
+      </c>
+      <c r="D41" s="5">
+        <v>768</v>
+      </c>
+      <c r="E41" s="5">
+        <v>757</v>
+      </c>
+      <c r="F41" s="5">
+        <v>739</v>
+      </c>
+      <c r="G41" s="5">
+        <v>697</v>
+      </c>
+      <c r="H41" s="6">
         <v>691</v>
       </c>
-      <c r="C41" s="6">
+      <c r="I41" s="6">
         <v>675</v>
       </c>
-      <c r="D41" s="6">
+      <c r="J41" s="6">
         <v>666</v>
       </c>
-      <c r="E41" s="6">
+      <c r="K41" s="6">
         <v>606</v>
       </c>
-      <c r="F41" s="6">
+      <c r="L41" s="6">
         <v>538</v>
       </c>
-      <c r="G41" s="6">
+      <c r="M41" s="6">
         <v>501</v>
       </c>
-      <c r="H41" s="6">
+      <c r="N41" s="6">
         <v>509</v>
       </c>
-      <c r="I41" s="6">
+      <c r="O41" s="6">
         <v>518</v>
       </c>
-      <c r="J41" s="6">
+      <c r="P41" s="6">
         <v>524</v>
       </c>
-      <c r="K41" s="6">
+      <c r="Q41" s="6">
         <v>558</v>
       </c>
-      <c r="L41" s="6">
+      <c r="R41" s="6">
         <v>1929</v>
       </c>
-      <c r="M41" s="6">
+      <c r="S41" s="6">
         <v>4645</v>
       </c>
-      <c r="N41" s="6">
+      <c r="T41" s="6">
         <v>6596</v>
       </c>
-      <c r="O41" s="6">
+      <c r="U41" s="6">
         <v>7088</v>
       </c>
-      <c r="P41" s="6">
+      <c r="V41" s="6">
         <v>6771</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="W41" s="6">
         <v>6890</v>
       </c>
-      <c r="R41" s="6">
+      <c r="X41" s="6">
         <v>7370</v>
       </c>
-      <c r="S41" s="6">
+      <c r="Y41" s="6">
         <v>6804</v>
       </c>
-      <c r="T41" s="6">
+      <c r="Z41" s="6">
         <v>5863</v>
       </c>
-      <c r="U41" s="6">
+      <c r="AA41" s="6">
         <v>6036</v>
       </c>
-      <c r="V41" s="6">
+      <c r="AB41" s="6">
         <v>6136</v>
       </c>
-      <c r="W41" s="6">
+      <c r="AC41" s="6">
         <v>4844</v>
       </c>
-      <c r="X41" s="6">
+      <c r="AD41" s="6">
         <v>4419</v>
       </c>
-      <c r="Y41" s="6">
+      <c r="AE41" s="6">
         <v>4290</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="AF41" s="6">
         <v>3885</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
+        <v>175</v>
+      </c>
+      <c r="C42" s="5">
+        <v>509</v>
+      </c>
+      <c r="D42" s="5">
+        <v>519</v>
+      </c>
+      <c r="E42" s="5">
+        <v>530</v>
+      </c>
+      <c r="F42" s="5">
+        <v>545</v>
+      </c>
+      <c r="G42" s="5">
+        <v>544</v>
+      </c>
+      <c r="H42" s="6">
         <v>611</v>
       </c>
-      <c r="C42" s="6">
+      <c r="I42" s="6">
         <v>602</v>
       </c>
-      <c r="D42" s="6">
+      <c r="J42" s="6">
         <v>608</v>
       </c>
-      <c r="E42" s="6">
+      <c r="K42" s="6">
         <v>570</v>
       </c>
-      <c r="F42" s="6">
+      <c r="L42" s="6">
         <v>518</v>
       </c>
-      <c r="G42" s="6">
+      <c r="M42" s="6">
         <v>506</v>
       </c>
-      <c r="H42" s="6">
+      <c r="N42" s="6">
         <v>543</v>
       </c>
-      <c r="I42" s="6">
+      <c r="O42" s="6">
         <v>565</v>
       </c>
-      <c r="J42" s="6">
+      <c r="P42" s="6">
         <v>595</v>
       </c>
-      <c r="K42" s="6">
+      <c r="Q42" s="6">
         <v>655</v>
       </c>
-      <c r="L42" s="6">
+      <c r="R42" s="6">
         <v>2479</v>
       </c>
-      <c r="M42" s="6">
+      <c r="S42" s="6">
         <v>5813</v>
       </c>
-      <c r="N42" s="6">
+      <c r="T42" s="6">
         <v>8543</v>
       </c>
-      <c r="O42" s="6">
+      <c r="U42" s="6">
         <v>9482</v>
       </c>
-      <c r="P42" s="6">
+      <c r="V42" s="6">
         <v>9161</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="W42" s="6">
         <v>9800</v>
       </c>
-      <c r="R42" s="6">
+      <c r="X42" s="6">
         <v>10698</v>
       </c>
-      <c r="S42" s="6">
+      <c r="Y42" s="6">
         <v>11045</v>
       </c>
-      <c r="T42" s="6">
+      <c r="Z42" s="6">
         <v>10415</v>
       </c>
-      <c r="U42" s="6">
+      <c r="AA42" s="6">
         <v>11659</v>
       </c>
-      <c r="V42" s="6">
+      <c r="AB42" s="6">
         <v>12274</v>
       </c>
-      <c r="W42" s="6">
+      <c r="AC42" s="6">
         <v>9959</v>
       </c>
-      <c r="X42" s="6">
+      <c r="AD42" s="6">
         <v>9683</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="AE42" s="6">
         <v>10754</v>
       </c>
-      <c r="Z42" s="6">
+      <c r="AF42" s="6">
         <v>10775</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="6">
         <v>28129</v>
       </c>
-      <c r="C43" s="6">
+      <c r="I43" s="6">
         <v>47623</v>
       </c>
-      <c r="D43" s="6">
+      <c r="J43" s="6">
         <v>67117</v>
       </c>
-      <c r="E43" s="6">
+      <c r="K43" s="6">
         <v>86612</v>
       </c>
-      <c r="F43" s="6">
+      <c r="L43" s="6">
         <v>105125</v>
       </c>
-      <c r="G43" s="6">
+      <c r="M43" s="6">
         <v>109524</v>
       </c>
-      <c r="H43" s="6">
+      <c r="N43" s="6">
         <v>113951</v>
       </c>
-      <c r="I43" s="6">
+      <c r="O43" s="6">
         <v>118377</v>
       </c>
-      <c r="J43" s="6">
+      <c r="P43" s="6">
         <v>122803</v>
       </c>
-      <c r="K43" s="6">
+      <c r="Q43" s="6">
         <v>127317</v>
       </c>
-      <c r="L43" s="6">
+      <c r="R43" s="6">
         <v>123956</v>
       </c>
-      <c r="M43" s="6">
+      <c r="S43" s="6">
         <v>120594</v>
       </c>
-      <c r="N43" s="6">
+      <c r="T43" s="6">
         <v>117233</v>
       </c>
-      <c r="O43" s="6">
+      <c r="U43" s="6">
         <v>113872</v>
       </c>
-      <c r="P43" s="6">
+      <c r="V43" s="6">
         <v>110510</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="W43" s="6">
         <v>107369</v>
       </c>
-      <c r="R43" s="6">
+      <c r="X43" s="6">
         <v>104228</v>
       </c>
-      <c r="S43" s="6">
+      <c r="Y43" s="6">
         <v>101087</v>
       </c>
-      <c r="T43" s="6">
+      <c r="Z43" s="6">
         <v>97946</v>
       </c>
-      <c r="U43" s="6">
+      <c r="AA43" s="6">
         <v>94805</v>
       </c>
-      <c r="V43" s="6">
+      <c r="AB43" s="6">
         <v>91927</v>
       </c>
-      <c r="W43" s="6">
+      <c r="AC43" s="6">
         <v>89049</v>
       </c>
-      <c r="X43" s="6">
+      <c r="AD43" s="6">
         <v>86171</v>
       </c>
-      <c r="Y43" s="6">
+      <c r="AE43" s="6">
         <v>83292</v>
       </c>
-      <c r="Z43" s="6">
+      <c r="AF43" s="6">
         <v>80414</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D44" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E44" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F44" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G44" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="H44" s="6">
         <v>4</v>
       </c>
-      <c r="C44" s="6">
+      <c r="I44" s="6">
         <v>4</v>
       </c>
-      <c r="D44" s="6">
+      <c r="J44" s="6">
         <v>4</v>
       </c>
-      <c r="E44" s="6">
+      <c r="K44" s="6">
         <v>4</v>
       </c>
-      <c r="F44" s="6">
+      <c r="L44" s="6">
         <v>3</v>
       </c>
-      <c r="G44" s="6">
+      <c r="M44" s="6">
         <v>3</v>
       </c>
-      <c r="H44" s="6">
+      <c r="N44" s="6">
         <v>3</v>
       </c>
-      <c r="I44" s="6">
+      <c r="O44" s="6">
         <v>3</v>
       </c>
-      <c r="J44" s="6">
+      <c r="P44" s="6">
         <v>3</v>
       </c>
-      <c r="K44" s="6">
+      <c r="Q44" s="6">
         <v>3</v>
       </c>
-      <c r="L44" s="6">
+      <c r="R44" s="6">
         <v>10</v>
-      </c>
-      <c r="M44" s="6">
-        <v>23</v>
-      </c>
-      <c r="N44" s="6">
-        <v>31</v>
-      </c>
-      <c r="O44" s="6">
-        <v>31</v>
-      </c>
-      <c r="P44" s="6">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>25</v>
-      </c>
-      <c r="R44" s="6">
-        <v>28</v>
       </c>
       <c r="S44" s="6">
         <v>23</v>
       </c>
       <c r="T44" s="6">
+        <v>31</v>
+      </c>
+      <c r="U44" s="6">
+        <v>31</v>
+      </c>
+      <c r="V44" s="6">
+        <v>33</v>
+      </c>
+      <c r="W44" s="6">
+        <v>25</v>
+      </c>
+      <c r="X44" s="6">
+        <v>28</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>23</v>
+      </c>
+      <c r="Z44" s="6">
         <v>21</v>
       </c>
-      <c r="U44" s="6">
+      <c r="AA44" s="6">
         <v>24</v>
       </c>
-      <c r="V44" s="6">
+      <c r="AB44" s="6">
         <v>26</v>
       </c>
-      <c r="W44" s="6">
+      <c r="AC44" s="6">
         <v>22</v>
       </c>
-      <c r="X44" s="6">
+      <c r="AD44" s="6">
         <v>22</v>
       </c>
-      <c r="Y44" s="6">
+      <c r="AE44" s="6">
         <v>26</v>
       </c>
-      <c r="Z44" s="6">
+      <c r="AF44" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
+        <v>156</v>
+      </c>
+      <c r="C45" s="5">
+        <v>155</v>
+      </c>
+      <c r="D45" s="5">
+        <v>156</v>
+      </c>
+      <c r="E45" s="5">
+        <v>146</v>
+      </c>
+      <c r="F45" s="5">
+        <v>134</v>
+      </c>
+      <c r="G45" s="5">
+        <v>149</v>
+      </c>
+      <c r="H45" s="6">
         <v>175</v>
       </c>
-      <c r="C45" s="6">
+      <c r="I45" s="6">
         <v>178</v>
       </c>
-      <c r="D45" s="6">
+      <c r="J45" s="6">
         <v>183</v>
       </c>
-      <c r="E45" s="6">
+      <c r="K45" s="6">
         <v>299</v>
       </c>
-      <c r="F45" s="6">
+      <c r="L45" s="6">
         <v>369</v>
       </c>
-      <c r="G45" s="6">
+      <c r="M45" s="6">
         <v>442</v>
       </c>
-      <c r="H45" s="6">
+      <c r="N45" s="6">
         <v>630</v>
       </c>
-      <c r="I45" s="6">
+      <c r="O45" s="6">
         <v>1212</v>
       </c>
-      <c r="J45" s="6">
+      <c r="P45" s="6">
         <v>3997</v>
       </c>
-      <c r="K45" s="6">
+      <c r="Q45" s="6">
         <v>7701</v>
       </c>
-      <c r="L45" s="6">
+      <c r="R45" s="6">
         <v>8580</v>
       </c>
-      <c r="M45" s="6">
+      <c r="S45" s="6">
         <v>9325</v>
       </c>
-      <c r="N45" s="6">
+      <c r="T45" s="6">
         <v>15361</v>
       </c>
-      <c r="O45" s="6">
+      <c r="U45" s="6">
         <v>16193</v>
       </c>
-      <c r="P45" s="6">
+      <c r="V45" s="6">
         <v>17019</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="W45" s="6">
         <v>18018</v>
       </c>
-      <c r="R45" s="6">
+      <c r="X45" s="6">
         <v>18386</v>
       </c>
-      <c r="S45" s="6">
+      <c r="Y45" s="6">
         <v>18610</v>
       </c>
-      <c r="T45" s="6">
+      <c r="Z45" s="6">
         <v>17890</v>
       </c>
-      <c r="U45" s="6">
+      <c r="AA45" s="6">
         <v>15130</v>
       </c>
-      <c r="V45" s="6">
+      <c r="AB45" s="6">
         <v>24584</v>
       </c>
-      <c r="W45" s="6">
+      <c r="AC45" s="6">
         <v>25524</v>
       </c>
-      <c r="X45" s="6">
+      <c r="AD45" s="6">
         <v>23363</v>
       </c>
-      <c r="Y45" s="6">
+      <c r="AE45" s="6">
         <v>23871</v>
       </c>
-      <c r="Z45" s="6">
+      <c r="AF45" s="6">
         <v>28216</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
+        <v>36</v>
+      </c>
+      <c r="C46" s="5">
+        <v>84</v>
+      </c>
+      <c r="D46" s="5">
+        <v>85</v>
+      </c>
+      <c r="E46" s="5">
+        <v>83</v>
+      </c>
+      <c r="F46" s="5">
+        <v>80</v>
+      </c>
+      <c r="G46" s="5">
+        <v>80</v>
+      </c>
+      <c r="H46" s="6">
         <v>100</v>
       </c>
-      <c r="C46" s="6">
+      <c r="I46" s="6">
         <v>91</v>
       </c>
-      <c r="D46" s="6">
+      <c r="J46" s="6">
         <v>89</v>
       </c>
-      <c r="E46" s="6">
+      <c r="K46" s="6">
         <v>92</v>
       </c>
-      <c r="F46" s="6">
+      <c r="L46" s="6">
         <v>103</v>
       </c>
-      <c r="G46" s="6">
+      <c r="M46" s="6">
         <v>99</v>
       </c>
-      <c r="H46" s="6">
+      <c r="N46" s="6">
         <v>90</v>
       </c>
-      <c r="I46" s="6">
+      <c r="O46" s="6">
         <v>92</v>
       </c>
-      <c r="J46" s="6">
+      <c r="P46" s="6">
         <v>88</v>
       </c>
-      <c r="K46" s="6">
+      <c r="Q46" s="6">
         <v>106</v>
       </c>
-      <c r="L46" s="6">
+      <c r="R46" s="6">
         <v>351</v>
       </c>
-      <c r="M46" s="6">
+      <c r="S46" s="6">
         <v>691</v>
       </c>
-      <c r="N46" s="6">
+      <c r="T46" s="6">
         <v>1232</v>
       </c>
-      <c r="O46" s="6">
+      <c r="U46" s="6">
         <v>1500</v>
       </c>
-      <c r="P46" s="6">
+      <c r="V46" s="6">
         <v>2205</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="W46" s="6">
         <v>2446</v>
       </c>
-      <c r="R46" s="6">
+      <c r="X46" s="6">
         <v>3203</v>
       </c>
-      <c r="S46" s="6">
+      <c r="Y46" s="6">
         <v>3199</v>
       </c>
-      <c r="T46" s="6">
+      <c r="Z46" s="6">
         <v>3253</v>
       </c>
-      <c r="U46" s="6">
+      <c r="AA46" s="6">
         <v>3353</v>
       </c>
-      <c r="V46" s="6">
+      <c r="AB46" s="6">
         <v>3640</v>
       </c>
-      <c r="W46" s="6">
+      <c r="AC46" s="6">
         <v>3328</v>
       </c>
-      <c r="X46" s="6">
+      <c r="AD46" s="6">
         <v>3598</v>
       </c>
-      <c r="Y46" s="6">
+      <c r="AE46" s="6">
         <v>3401</v>
       </c>
-      <c r="Z46" s="6">
+      <c r="AF46" s="6">
         <v>3013</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
+        <v>49</v>
+      </c>
+      <c r="C47" s="5">
+        <v>53</v>
+      </c>
+      <c r="D47" s="5">
+        <v>52</v>
+      </c>
+      <c r="E47" s="5">
+        <v>51</v>
+      </c>
+      <c r="F47" s="5">
+        <v>45</v>
+      </c>
+      <c r="G47" s="5">
+        <v>48</v>
+      </c>
+      <c r="H47" s="6">
         <v>442</v>
       </c>
-      <c r="C47" s="6">
+      <c r="I47" s="6">
         <v>434</v>
       </c>
-      <c r="D47" s="6">
+      <c r="J47" s="6">
         <v>450</v>
       </c>
-      <c r="E47" s="6">
+      <c r="K47" s="6">
         <v>445</v>
       </c>
-      <c r="F47" s="6">
+      <c r="L47" s="6">
         <v>469</v>
       </c>
-      <c r="G47" s="6">
+      <c r="M47" s="6">
         <v>308</v>
       </c>
-      <c r="H47" s="6">
+      <c r="N47" s="6">
         <v>635</v>
       </c>
-      <c r="I47" s="6">
+      <c r="O47" s="6">
         <v>2034</v>
       </c>
-      <c r="J47" s="6">
+      <c r="P47" s="6">
         <v>4839</v>
       </c>
-      <c r="K47" s="6">
+      <c r="Q47" s="6">
         <v>4960</v>
       </c>
-      <c r="L47" s="6">
+      <c r="R47" s="6">
         <v>4580</v>
       </c>
-      <c r="M47" s="6">
+      <c r="S47" s="6">
         <v>4629</v>
       </c>
-      <c r="N47" s="6">
+      <c r="T47" s="6">
         <v>4913</v>
       </c>
-      <c r="O47" s="6">
+      <c r="U47" s="6">
         <v>5341</v>
       </c>
-      <c r="P47" s="6">
+      <c r="V47" s="6">
         <v>5391</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="W47" s="6">
         <v>5223</v>
       </c>
-      <c r="R47" s="6">
+      <c r="X47" s="6">
         <v>4935</v>
       </c>
-      <c r="S47" s="6">
+      <c r="Y47" s="6">
         <v>5121</v>
       </c>
-      <c r="T47" s="6">
+      <c r="Z47" s="6">
         <v>5050</v>
       </c>
-      <c r="U47" s="6">
+      <c r="AA47" s="6">
         <v>5163</v>
       </c>
-      <c r="V47" s="6">
+      <c r="AB47" s="6">
         <v>5701</v>
       </c>
-      <c r="W47" s="6">
+      <c r="AC47" s="6">
         <v>5510</v>
       </c>
-      <c r="X47" s="6">
+      <c r="AD47" s="6">
         <v>5529</v>
       </c>
-      <c r="Y47" s="6">
+      <c r="AE47" s="6">
         <v>5288</v>
       </c>
-      <c r="Z47" s="6">
+      <c r="AF47" s="6">
         <v>5708</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="6" t="s">
         <v>29</v>
       </c>
@@ -4429,569 +4990,647 @@
       <c r="Z48" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF48" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6">
         <v>36460</v>
       </c>
-      <c r="C49" s="6">
+      <c r="I49" s="6">
         <v>55931</v>
       </c>
-      <c r="D49" s="6">
+      <c r="J49" s="6">
         <v>75248</v>
       </c>
-      <c r="E49" s="6">
+      <c r="K49" s="6">
         <v>93955</v>
       </c>
-      <c r="F49" s="6">
+      <c r="L49" s="6">
         <v>112096</v>
       </c>
-      <c r="G49" s="6">
+      <c r="M49" s="6">
         <v>115969</v>
       </c>
-      <c r="H49" s="6">
+      <c r="N49" s="6">
         <v>122505</v>
       </c>
-      <c r="I49" s="6">
+      <c r="O49" s="6">
         <v>129135</v>
       </c>
-      <c r="J49" s="6">
+      <c r="P49" s="6">
         <v>140050</v>
       </c>
-      <c r="K49" s="6">
+      <c r="Q49" s="6">
         <v>155851</v>
       </c>
-      <c r="L49" s="6">
+      <c r="R49" s="6">
         <v>155914</v>
       </c>
-      <c r="M49" s="6">
+      <c r="S49" s="6">
         <v>160177</v>
       </c>
-      <c r="N49" s="6">
+      <c r="T49" s="6">
         <v>176749</v>
       </c>
-      <c r="O49" s="6">
+      <c r="U49" s="6">
         <v>177861</v>
       </c>
-      <c r="P49" s="6">
+      <c r="V49" s="6">
         <v>172358</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="W49" s="6">
         <v>168637</v>
       </c>
-      <c r="R49" s="6">
+      <c r="X49" s="6">
         <v>167219</v>
       </c>
-      <c r="S49" s="6">
+      <c r="Y49" s="6">
         <v>181432</v>
       </c>
-      <c r="T49" s="6">
+      <c r="Z49" s="6">
         <v>175659</v>
       </c>
-      <c r="U49" s="6">
+      <c r="AA49" s="6">
         <v>174928</v>
       </c>
-      <c r="V49" s="6">
+      <c r="AB49" s="6">
         <v>202323</v>
       </c>
-      <c r="W49" s="6">
+      <c r="AC49" s="6">
         <v>193546</v>
       </c>
-      <c r="X49" s="6">
+      <c r="AD49" s="6">
         <v>182825</v>
       </c>
-      <c r="Y49" s="6">
+      <c r="AE49" s="6">
         <v>181659</v>
       </c>
-      <c r="Z49" s="6">
+      <c r="AF49" s="6">
         <v>186293</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="14"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="16"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
+        <v>17</v>
+      </c>
+      <c r="C51" s="5">
+        <v>15</v>
+      </c>
+      <c r="D51" s="5">
+        <v>15</v>
+      </c>
+      <c r="E51" s="5">
+        <v>14</v>
+      </c>
+      <c r="F51" s="5">
+        <v>14</v>
+      </c>
+      <c r="G51" s="5">
         <v>13</v>
       </c>
-      <c r="C51" s="6">
+      <c r="H51" s="6">
+        <v>13</v>
+      </c>
+      <c r="I51" s="6">
         <v>12</v>
       </c>
-      <c r="D51" s="6">
+      <c r="J51" s="6">
         <v>12</v>
       </c>
-      <c r="E51" s="6">
+      <c r="K51" s="6">
         <v>13</v>
       </c>
-      <c r="F51" s="6">
+      <c r="L51" s="6">
         <v>13</v>
       </c>
-      <c r="G51" s="6">
+      <c r="M51" s="6">
         <v>12</v>
       </c>
-      <c r="H51" s="6">
+      <c r="N51" s="6">
         <v>11</v>
       </c>
-      <c r="I51" s="6">
+      <c r="O51" s="6">
         <v>11</v>
       </c>
-      <c r="J51" s="6">
+      <c r="P51" s="6">
         <v>11</v>
       </c>
-      <c r="K51" s="6">
+      <c r="Q51" s="6">
         <v>10</v>
       </c>
-      <c r="L51" s="6">
+      <c r="R51" s="6">
         <v>9</v>
       </c>
-      <c r="M51" s="6">
+      <c r="S51" s="6">
         <v>8</v>
       </c>
-      <c r="N51" s="6">
+      <c r="T51" s="6">
         <v>8</v>
       </c>
-      <c r="O51" s="6">
+      <c r="U51" s="6">
         <v>7</v>
       </c>
-      <c r="P51" s="6">
+      <c r="V51" s="6">
         <v>7</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="W51" s="6">
         <v>7</v>
       </c>
-      <c r="R51" s="6">
+      <c r="X51" s="6">
         <v>6</v>
       </c>
-      <c r="S51" s="6">
+      <c r="Y51" s="6">
         <v>6</v>
       </c>
-      <c r="T51" s="6">
+      <c r="Z51" s="6">
         <v>6</v>
       </c>
-      <c r="U51" s="6">
+      <c r="AA51" s="6">
         <v>6</v>
       </c>
-      <c r="V51" s="6">
+      <c r="AB51" s="6">
         <v>6</v>
       </c>
-      <c r="W51" s="6">
+      <c r="AC51" s="6">
         <v>6</v>
       </c>
-      <c r="X51" s="6">
+      <c r="AD51" s="6">
         <v>5</v>
       </c>
-      <c r="Y51" s="6">
+      <c r="AE51" s="6">
         <v>5</v>
       </c>
-      <c r="Z51" s="6">
+      <c r="AF51" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="6">
         <v>439</v>
       </c>
-      <c r="C52" s="6">
+      <c r="I52" s="6">
         <v>439</v>
       </c>
-      <c r="D52" s="6">
+      <c r="J52" s="6">
         <v>439</v>
       </c>
-      <c r="E52" s="6">
+      <c r="K52" s="6">
         <v>439</v>
       </c>
-      <c r="F52" s="6">
+      <c r="L52" s="6">
         <v>439</v>
       </c>
-      <c r="G52" s="6">
+      <c r="M52" s="6">
         <v>439</v>
       </c>
-      <c r="H52" s="6">
+      <c r="N52" s="6">
         <v>447</v>
       </c>
-      <c r="I52" s="6">
+      <c r="O52" s="6">
         <v>509</v>
       </c>
-      <c r="J52" s="6">
+      <c r="P52" s="6">
         <v>520</v>
       </c>
-      <c r="K52" s="6">
+      <c r="Q52" s="6">
         <v>24</v>
       </c>
-      <c r="L52" s="6">
+      <c r="R52" s="6">
         <v>25</v>
-      </c>
-      <c r="M52" s="6">
-        <v>26</v>
-      </c>
-      <c r="N52" s="6">
-        <v>22</v>
-      </c>
-      <c r="O52" s="6">
-        <v>25</v>
-      </c>
-      <c r="P52" s="6">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="6">
-        <v>45</v>
-      </c>
-      <c r="R52" s="6">
-        <v>36</v>
       </c>
       <c r="S52" s="6">
         <v>26</v>
       </c>
       <c r="T52" s="6">
+        <v>22</v>
+      </c>
+      <c r="U52" s="6">
+        <v>25</v>
+      </c>
+      <c r="V52" s="6">
+        <v>29</v>
+      </c>
+      <c r="W52" s="6">
+        <v>45</v>
+      </c>
+      <c r="X52" s="6">
+        <v>36</v>
+      </c>
+      <c r="Y52" s="6">
+        <v>26</v>
+      </c>
+      <c r="Z52" s="6">
         <v>31</v>
       </c>
-      <c r="U52" s="6">
+      <c r="AA52" s="6">
         <v>37</v>
       </c>
-      <c r="V52" s="6">
+      <c r="AB52" s="6">
         <v>28</v>
       </c>
-      <c r="W52" s="6">
+      <c r="AC52" s="6">
         <v>33</v>
       </c>
-      <c r="X52" s="6">
+      <c r="AD52" s="6">
         <v>38</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="AE52" s="6">
         <v>43</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="AF52" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
+        <v>188</v>
+      </c>
+      <c r="C53" s="5">
+        <v>196</v>
+      </c>
+      <c r="D53" s="5">
+        <v>214</v>
+      </c>
+      <c r="E53" s="5">
+        <v>230</v>
+      </c>
+      <c r="F53" s="5">
+        <v>221</v>
+      </c>
+      <c r="G53" s="5">
+        <v>202</v>
+      </c>
+      <c r="H53" s="6">
         <v>139</v>
       </c>
-      <c r="C53" s="6">
+      <c r="I53" s="6">
         <v>207</v>
       </c>
-      <c r="D53" s="6">
+      <c r="J53" s="6">
         <v>232</v>
       </c>
-      <c r="E53" s="6">
+      <c r="K53" s="6">
         <v>219</v>
       </c>
-      <c r="F53" s="6">
+      <c r="L53" s="6">
         <v>183</v>
       </c>
-      <c r="G53" s="6">
+      <c r="M53" s="6">
         <v>233</v>
       </c>
-      <c r="H53" s="6">
+      <c r="N53" s="6">
         <v>214</v>
       </c>
-      <c r="I53" s="6">
+      <c r="O53" s="6">
         <v>336</v>
       </c>
-      <c r="J53" s="6">
+      <c r="P53" s="6">
         <v>186</v>
       </c>
-      <c r="K53" s="6">
+      <c r="Q53" s="6">
         <v>657</v>
       </c>
-      <c r="L53" s="6">
+      <c r="R53" s="6">
         <v>676</v>
       </c>
-      <c r="M53" s="6">
+      <c r="S53" s="6">
         <v>621</v>
       </c>
-      <c r="N53" s="6">
+      <c r="T53" s="6">
         <v>715</v>
       </c>
-      <c r="O53" s="6">
+      <c r="U53" s="6">
         <v>742</v>
       </c>
-      <c r="P53" s="6">
+      <c r="V53" s="6">
         <v>732</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="W53" s="6">
         <v>804</v>
       </c>
-      <c r="R53" s="6">
+      <c r="X53" s="6">
         <v>803</v>
       </c>
-      <c r="S53" s="6">
+      <c r="Y53" s="6">
         <v>818</v>
       </c>
-      <c r="T53" s="6">
+      <c r="Z53" s="6">
         <v>812</v>
       </c>
-      <c r="U53" s="6">
+      <c r="AA53" s="6">
         <v>840</v>
       </c>
-      <c r="V53" s="6">
+      <c r="AB53" s="6">
         <v>860</v>
       </c>
-      <c r="W53" s="6">
+      <c r="AC53" s="6">
         <v>770</v>
       </c>
-      <c r="X53" s="6">
+      <c r="AD53" s="6">
         <v>715</v>
       </c>
-      <c r="Y53" s="6">
+      <c r="AE53" s="6">
         <v>1004</v>
       </c>
-      <c r="Z53" s="6">
+      <c r="AF53" s="6">
         <v>1012</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6">
         <v>1516</v>
       </c>
-      <c r="C54" s="6">
+      <c r="I54" s="6">
         <v>1516</v>
       </c>
-      <c r="D54" s="6">
+      <c r="J54" s="6">
         <v>1516</v>
       </c>
-      <c r="E54" s="6">
+      <c r="K54" s="6">
         <v>1516</v>
       </c>
-      <c r="F54" s="6">
+      <c r="L54" s="6">
         <v>1648</v>
       </c>
-      <c r="G54" s="6">
+      <c r="M54" s="6">
         <v>1579</v>
       </c>
-      <c r="H54" s="6">
+      <c r="N54" s="6">
         <v>1221</v>
       </c>
-      <c r="I54" s="6">
+      <c r="O54" s="6">
         <v>1290</v>
       </c>
-      <c r="J54" s="6">
+      <c r="P54" s="6">
         <v>1221</v>
       </c>
-      <c r="K54" s="6">
+      <c r="Q54" s="6">
         <v>1407</v>
       </c>
-      <c r="L54" s="6">
+      <c r="R54" s="6">
         <v>1407</v>
       </c>
-      <c r="M54" s="6">
+      <c r="S54" s="6">
         <v>1292</v>
       </c>
-      <c r="N54" s="6">
+      <c r="T54" s="6">
         <v>1209</v>
       </c>
-      <c r="O54" s="6">
+      <c r="U54" s="6">
         <v>1110</v>
       </c>
-      <c r="P54" s="6">
+      <c r="V54" s="6">
         <v>1029</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="W54" s="6">
         <v>1029</v>
       </c>
-      <c r="R54" s="6">
+      <c r="X54" s="6">
         <v>1029</v>
       </c>
-      <c r="S54" s="6">
+      <c r="Y54" s="6">
         <v>1029</v>
-      </c>
-      <c r="T54" s="6">
-        <v>1030</v>
-      </c>
-      <c r="U54" s="6">
-        <v>1030</v>
-      </c>
-      <c r="V54" s="6">
-        <v>1030</v>
-      </c>
-      <c r="W54" s="6">
-        <v>1030</v>
-      </c>
-      <c r="X54" s="6">
-        <v>1030</v>
-      </c>
-      <c r="Y54" s="6">
-        <v>1030</v>
       </c>
       <c r="Z54" s="6">
         <v>1030</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA54" s="6">
+        <v>1030</v>
+      </c>
+      <c r="AB54" s="6">
+        <v>1030</v>
+      </c>
+      <c r="AC54" s="6">
+        <v>1030</v>
+      </c>
+      <c r="AD54" s="6">
+        <v>1030</v>
+      </c>
+      <c r="AE54" s="6">
+        <v>1030</v>
+      </c>
+      <c r="AF54" s="6">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6">
         <v>2108</v>
       </c>
-      <c r="C55" s="6">
+      <c r="I55" s="6">
         <v>2175</v>
       </c>
-      <c r="D55" s="6">
+      <c r="J55" s="6">
         <v>2199</v>
       </c>
-      <c r="E55" s="6">
+      <c r="K55" s="6">
         <v>2187</v>
       </c>
-      <c r="F55" s="6">
+      <c r="L55" s="6">
         <v>2283</v>
       </c>
-      <c r="G55" s="6">
+      <c r="M55" s="6">
         <v>2264</v>
       </c>
-      <c r="H55" s="6">
+      <c r="N55" s="6">
         <v>1892</v>
       </c>
-      <c r="I55" s="6">
+      <c r="O55" s="6">
         <v>2146</v>
       </c>
-      <c r="J55" s="6">
+      <c r="P55" s="6">
         <v>1937</v>
       </c>
-      <c r="K55" s="6">
+      <c r="Q55" s="6">
         <v>2097</v>
       </c>
-      <c r="L55" s="6">
+      <c r="R55" s="6">
         <v>2117</v>
       </c>
-      <c r="M55" s="6">
+      <c r="S55" s="6">
         <v>1948</v>
       </c>
-      <c r="N55" s="6">
+      <c r="T55" s="6">
         <v>1953</v>
       </c>
-      <c r="O55" s="6">
+      <c r="U55" s="6">
         <v>1885</v>
       </c>
-      <c r="P55" s="6">
+      <c r="V55" s="6">
         <v>1797</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="W55" s="6">
         <v>1885</v>
       </c>
-      <c r="R55" s="6">
+      <c r="X55" s="6">
         <v>1875</v>
       </c>
-      <c r="S55" s="6">
+      <c r="Y55" s="6">
         <v>1880</v>
       </c>
-      <c r="T55" s="6">
+      <c r="Z55" s="6">
         <v>1879</v>
       </c>
-      <c r="U55" s="6">
+      <c r="AA55" s="6">
         <v>1912</v>
       </c>
-      <c r="V55" s="6">
+      <c r="AB55" s="6">
         <v>1923</v>
       </c>
-      <c r="W55" s="6">
+      <c r="AC55" s="6">
         <v>1838</v>
       </c>
-      <c r="X55" s="6">
+      <c r="AD55" s="6">
         <v>1788</v>
       </c>
-      <c r="Y55" s="6">
+      <c r="AE55" s="6">
         <v>2082</v>
       </c>
-      <c r="Z55" s="6">
+      <c r="AF55" s="6">
         <v>2086</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="14"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="16"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
       <c r="H57" s="6" t="s">
         <v>29</v>
       </c>
@@ -5049,29 +5688,35 @@
       <c r="Z57" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF57" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
       <c r="H58" s="6" t="s">
         <v>29</v>
       </c>
@@ -5129,29 +5774,35 @@
       <c r="Z58" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF58" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="6" t="s">
         <v>29</v>
       </c>
@@ -5209,35 +5860,41 @@
       <c r="Z59" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF59" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6">
         <v>141</v>
       </c>
-      <c r="C60" s="6">
+      <c r="I60" s="6">
         <v>137</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="J60" s="6" t="s">
         <v>29</v>
       </c>
@@ -5289,29 +5946,35 @@
       <c r="Z60" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF60" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
       <c r="H61" s="6" t="s">
         <v>29</v>
       </c>
@@ -5369,29 +6032,35 @@
       <c r="Z61" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF61" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
       <c r="H62" s="6" t="s">
         <v>29</v>
       </c>
@@ -5449,29 +6118,35 @@
       <c r="Z62" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF62" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
       <c r="H63" s="6" t="s">
         <v>29</v>
       </c>
@@ -5481,32 +6156,32 @@
       <c r="J63" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="6">
         <v>1</v>
       </c>
-      <c r="L63" s="6">
+      <c r="R63" s="6">
         <v>1</v>
       </c>
-      <c r="M63" s="6">
+      <c r="S63" s="6">
         <v>10</v>
-      </c>
-      <c r="N63" s="6">
-        <v>1</v>
-      </c>
-      <c r="O63" s="6">
-        <v>1</v>
-      </c>
-      <c r="P63" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="6">
-        <v>2</v>
-      </c>
-      <c r="R63" s="6">
-        <v>2</v>
-      </c>
-      <c r="S63" s="6">
-        <v>2</v>
       </c>
       <c r="T63" s="6">
         <v>1</v>
@@ -5515,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="V63" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W63" s="6">
         <v>2</v>
@@ -5524,34 +6199,40 @@
         <v>2</v>
       </c>
       <c r="Y63" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z63" s="6">
         <v>1</v>
       </c>
-      <c r="Z63" s="6">
+      <c r="AA63" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC63" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD63" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE63" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
       <c r="H64" s="6" t="s">
         <v>29</v>
       </c>
@@ -5609,29 +6290,35 @@
       <c r="Z64" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF64" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
       <c r="H65" s="6" t="s">
         <v>29</v>
       </c>
@@ -5689,29 +6376,35 @@
       <c r="Z65" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF65" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="6" t="s">
         <v>29</v>
       </c>
@@ -5769,29 +6462,35 @@
       <c r="Z66" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF66" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="6" t="s">
         <v>29</v>
       </c>
@@ -5849,64 +6548,70 @@
       <c r="Z67" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF67" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6">
         <v>141</v>
       </c>
-      <c r="C68" s="6">
+      <c r="I68" s="6">
         <v>137</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="J68" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" s="6">
         <v>1</v>
       </c>
-      <c r="L68" s="6">
+      <c r="R68" s="6">
         <v>1</v>
       </c>
-      <c r="M68" s="6">
+      <c r="S68" s="6">
         <v>10</v>
-      </c>
-      <c r="N68" s="6">
-        <v>1</v>
-      </c>
-      <c r="O68" s="6">
-        <v>1</v>
-      </c>
-      <c r="P68" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q68" s="6">
-        <v>2</v>
-      </c>
-      <c r="R68" s="6">
-        <v>2</v>
-      </c>
-      <c r="S68" s="6">
-        <v>2</v>
       </c>
       <c r="T68" s="6">
         <v>1</v>
@@ -5924,224 +6629,260 @@
         <v>2</v>
       </c>
       <c r="Y68" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z68" s="6">
         <v>1</v>
       </c>
-      <c r="Z68" s="6">
+      <c r="AA68" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="AC68" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD68" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE68" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="14"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="16"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
+        <v>276</v>
+      </c>
+      <c r="C70" s="5">
+        <v>220</v>
+      </c>
+      <c r="D70" s="5">
+        <v>237</v>
+      </c>
+      <c r="E70" s="5">
+        <v>303</v>
+      </c>
+      <c r="F70" s="5">
+        <v>365</v>
+      </c>
+      <c r="G70" s="5">
+        <v>420</v>
+      </c>
+      <c r="H70" s="6">
         <v>8597</v>
       </c>
-      <c r="C70" s="6">
+      <c r="I70" s="6">
         <v>8597</v>
       </c>
-      <c r="D70" s="6">
+      <c r="J70" s="6">
         <v>8259</v>
       </c>
-      <c r="E70" s="6">
+      <c r="K70" s="6">
         <v>9197</v>
       </c>
-      <c r="F70" s="6">
+      <c r="L70" s="6">
         <v>7506</v>
       </c>
-      <c r="G70" s="6">
+      <c r="M70" s="6">
         <v>6097</v>
       </c>
-      <c r="H70" s="6">
+      <c r="N70" s="6">
         <v>5865</v>
       </c>
-      <c r="I70" s="6">
+      <c r="O70" s="6">
         <v>5611</v>
       </c>
-      <c r="J70" s="6">
+      <c r="P70" s="6">
         <v>2091</v>
       </c>
-      <c r="K70" s="6">
+      <c r="Q70" s="6">
         <v>2868</v>
       </c>
-      <c r="L70" s="6">
+      <c r="R70" s="6">
         <v>2921</v>
       </c>
-      <c r="M70" s="6">
+      <c r="S70" s="6">
         <v>2392</v>
       </c>
-      <c r="N70" s="6">
+      <c r="T70" s="6">
         <v>1477</v>
       </c>
-      <c r="O70" s="6">
+      <c r="U70" s="6">
         <v>1927</v>
       </c>
-      <c r="P70" s="6">
+      <c r="V70" s="6">
         <v>1530</v>
       </c>
-      <c r="Q70" s="6">
+      <c r="W70" s="6">
         <v>1599</v>
       </c>
-      <c r="R70" s="6">
+      <c r="X70" s="6">
         <v>1368</v>
       </c>
-      <c r="S70" s="6">
+      <c r="Y70" s="6">
         <v>1410</v>
       </c>
-      <c r="T70" s="6">
+      <c r="Z70" s="6">
         <v>1548</v>
       </c>
-      <c r="U70" s="6">
+      <c r="AA70" s="6">
         <v>1585</v>
       </c>
-      <c r="V70" s="6">
+      <c r="AB70" s="6">
         <v>1656</v>
       </c>
-      <c r="W70" s="6">
+      <c r="AC70" s="6">
         <v>1941</v>
       </c>
-      <c r="X70" s="6">
+      <c r="AD70" s="6">
         <v>2114</v>
       </c>
-      <c r="Y70" s="6">
+      <c r="AE70" s="6">
         <v>1957</v>
       </c>
-      <c r="Z70" s="6">
+      <c r="AF70" s="6">
         <v>2174</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="6">
         <v>1503</v>
       </c>
-      <c r="C71" s="6">
+      <c r="I71" s="6">
         <v>1503</v>
       </c>
-      <c r="D71" s="6">
+      <c r="J71" s="6">
         <v>1503</v>
       </c>
-      <c r="E71" s="6">
+      <c r="K71" s="6">
         <v>1552</v>
       </c>
-      <c r="F71" s="6">
+      <c r="L71" s="6">
         <v>1808</v>
       </c>
-      <c r="G71" s="6">
+      <c r="M71" s="6">
         <v>1418</v>
       </c>
-      <c r="H71" s="6">
+      <c r="N71" s="6">
         <v>480</v>
       </c>
-      <c r="I71" s="6">
+      <c r="O71" s="6">
         <v>521</v>
       </c>
-      <c r="J71" s="6">
+      <c r="P71" s="6">
         <v>932</v>
       </c>
-      <c r="K71" s="6">
+      <c r="Q71" s="6">
         <v>1365</v>
       </c>
-      <c r="L71" s="6">
+      <c r="R71" s="6">
         <v>697</v>
       </c>
-      <c r="M71" s="6">
+      <c r="S71" s="6">
         <v>747</v>
       </c>
-      <c r="N71" s="6">
+      <c r="T71" s="6">
         <v>708</v>
       </c>
-      <c r="O71" s="6">
+      <c r="U71" s="6">
         <v>693</v>
       </c>
-      <c r="P71" s="6">
+      <c r="V71" s="6">
         <v>612</v>
       </c>
-      <c r="Q71" s="6">
+      <c r="W71" s="6">
         <v>501</v>
       </c>
-      <c r="R71" s="6">
+      <c r="X71" s="6">
         <v>565</v>
       </c>
-      <c r="S71" s="6">
+      <c r="Y71" s="6">
         <v>676</v>
       </c>
-      <c r="T71" s="6">
+      <c r="Z71" s="6">
         <v>702</v>
       </c>
-      <c r="U71" s="6">
+      <c r="AA71" s="6">
         <v>734</v>
       </c>
-      <c r="V71" s="6">
+      <c r="AB71" s="6">
         <v>850</v>
       </c>
-      <c r="W71" s="6">
+      <c r="AC71" s="6">
         <v>781</v>
       </c>
-      <c r="X71" s="6">
+      <c r="AD71" s="6">
         <v>943</v>
       </c>
-      <c r="Y71" s="6">
+      <c r="AE71" s="6">
         <v>842</v>
       </c>
-      <c r="Z71" s="6">
+      <c r="AF71" s="6">
         <v>1857</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
       <c r="H72" s="6" t="s">
         <v>29</v>
       </c>
@@ -6199,29 +6940,35 @@
       <c r="Z72" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF72" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
       <c r="H73" s="6" t="s">
         <v>29</v>
       </c>
@@ -6279,29 +7026,35 @@
       <c r="Z73" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF73" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
       <c r="H74" s="6" t="s">
         <v>29</v>
       </c>
@@ -6359,109 +7112,133 @@
       <c r="Z74" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF74" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
+        <v>1150</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1024</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1092</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1098</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1137</v>
+      </c>
+      <c r="G75" s="5">
+        <v>1305</v>
+      </c>
+      <c r="H75" s="6">
         <v>1050</v>
       </c>
-      <c r="C75" s="6">
+      <c r="I75" s="6">
         <v>831</v>
       </c>
-      <c r="D75" s="6">
+      <c r="J75" s="6">
         <v>854</v>
       </c>
-      <c r="E75" s="6">
+      <c r="K75" s="6">
         <v>912</v>
       </c>
-      <c r="F75" s="6">
+      <c r="L75" s="6">
         <v>628</v>
       </c>
-      <c r="G75" s="6">
+      <c r="M75" s="6">
         <v>716</v>
       </c>
-      <c r="H75" s="6">
+      <c r="N75" s="6">
         <v>542</v>
       </c>
-      <c r="I75" s="6">
+      <c r="O75" s="6">
         <v>595</v>
       </c>
-      <c r="J75" s="6">
+      <c r="P75" s="6">
         <v>562</v>
       </c>
-      <c r="K75" s="6">
+      <c r="Q75" s="6">
         <v>789</v>
       </c>
-      <c r="L75" s="6">
+      <c r="R75" s="6">
         <v>832</v>
       </c>
-      <c r="M75" s="6">
+      <c r="S75" s="6">
         <v>989</v>
       </c>
-      <c r="N75" s="6">
+      <c r="T75" s="6">
         <v>1188</v>
       </c>
-      <c r="O75" s="6">
+      <c r="U75" s="6">
         <v>1167</v>
       </c>
-      <c r="P75" s="6">
+      <c r="V75" s="6">
         <v>1166</v>
       </c>
-      <c r="Q75" s="6">
+      <c r="W75" s="6">
         <v>1191</v>
       </c>
-      <c r="R75" s="6">
+      <c r="X75" s="6">
         <v>1186</v>
       </c>
-      <c r="S75" s="6">
+      <c r="Y75" s="6">
         <v>1114</v>
       </c>
-      <c r="T75" s="6">
+      <c r="Z75" s="6">
         <v>1081</v>
       </c>
-      <c r="U75" s="6">
+      <c r="AA75" s="6">
         <v>1180</v>
       </c>
-      <c r="V75" s="6">
+      <c r="AB75" s="6">
         <v>1069</v>
       </c>
-      <c r="W75" s="6">
+      <c r="AC75" s="6">
         <v>1068</v>
       </c>
-      <c r="X75" s="6">
+      <c r="AD75" s="6">
         <v>1082</v>
       </c>
-      <c r="Y75" s="6">
+      <c r="AE75" s="6">
         <v>1082</v>
       </c>
-      <c r="Z75" s="6">
+      <c r="AF75" s="6">
         <v>1130</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
       <c r="H76" s="6" t="s">
         <v>29</v>
       </c>
@@ -6519,244 +7296,292 @@
       <c r="Z76" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF76" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5">
+        <v>15</v>
+      </c>
+      <c r="D77" s="5">
+        <v>12</v>
+      </c>
+      <c r="E77" s="5">
+        <v>20</v>
+      </c>
+      <c r="F77" s="5">
+        <v>34</v>
+      </c>
+      <c r="G77" s="5">
+        <v>41</v>
+      </c>
+      <c r="H77" s="6">
         <v>58</v>
       </c>
-      <c r="C77" s="6">
+      <c r="I77" s="6">
         <v>13</v>
       </c>
-      <c r="D77" s="6">
+      <c r="J77" s="6">
         <v>35</v>
       </c>
-      <c r="E77" s="6">
+      <c r="K77" s="6">
         <v>30</v>
       </c>
-      <c r="F77" s="6">
+      <c r="L77" s="6">
         <v>16</v>
       </c>
-      <c r="G77" s="6">
+      <c r="M77" s="6">
         <v>50</v>
       </c>
-      <c r="H77" s="6">
+      <c r="N77" s="6">
         <v>39</v>
       </c>
-      <c r="I77" s="6">
+      <c r="O77" s="6">
         <v>11</v>
       </c>
-      <c r="J77" s="6">
+      <c r="P77" s="6">
         <v>25</v>
       </c>
-      <c r="K77" s="6">
+      <c r="Q77" s="6">
         <v>21</v>
       </c>
-      <c r="L77" s="6">
+      <c r="R77" s="6">
         <v>11</v>
       </c>
-      <c r="M77" s="6">
+      <c r="S77" s="6">
         <v>124</v>
       </c>
-      <c r="N77" s="6">
+      <c r="T77" s="6">
         <v>11</v>
       </c>
-      <c r="O77" s="6">
+      <c r="U77" s="6">
         <v>27</v>
       </c>
-      <c r="P77" s="6">
+      <c r="V77" s="6">
         <v>28</v>
       </c>
-      <c r="Q77" s="6">
+      <c r="W77" s="6">
         <v>50</v>
       </c>
-      <c r="R77" s="6">
+      <c r="X77" s="6">
         <v>61</v>
       </c>
-      <c r="S77" s="6">
+      <c r="Y77" s="6">
         <v>65</v>
       </c>
-      <c r="T77" s="6">
+      <c r="Z77" s="6">
         <v>127</v>
       </c>
-      <c r="U77" s="6">
+      <c r="AA77" s="6">
         <v>181</v>
       </c>
-      <c r="V77" s="6">
+      <c r="AB77" s="6">
         <v>177</v>
       </c>
-      <c r="W77" s="6">
+      <c r="AC77" s="6">
         <v>198</v>
       </c>
-      <c r="X77" s="6">
+      <c r="AD77" s="6">
         <v>120</v>
       </c>
-      <c r="Y77" s="6">
+      <c r="AE77" s="6">
         <v>196</v>
       </c>
-      <c r="Z77" s="6">
+      <c r="AF77" s="6">
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="6">
         <v>11208</v>
       </c>
-      <c r="C78" s="6">
+      <c r="I78" s="6">
         <v>10944</v>
       </c>
-      <c r="D78" s="6">
+      <c r="J78" s="6">
         <v>10650</v>
       </c>
-      <c r="E78" s="6">
+      <c r="K78" s="6">
         <v>11691</v>
       </c>
-      <c r="F78" s="6">
+      <c r="L78" s="6">
         <v>9957</v>
       </c>
-      <c r="G78" s="6">
+      <c r="M78" s="6">
         <v>8281</v>
       </c>
-      <c r="H78" s="6">
+      <c r="N78" s="6">
         <v>6926</v>
       </c>
-      <c r="I78" s="6">
+      <c r="O78" s="6">
         <v>6738</v>
       </c>
-      <c r="J78" s="6">
+      <c r="P78" s="6">
         <v>3609</v>
       </c>
-      <c r="K78" s="6">
+      <c r="Q78" s="6">
         <v>5043</v>
       </c>
-      <c r="L78" s="6">
+      <c r="R78" s="6">
         <v>4461</v>
       </c>
-      <c r="M78" s="6">
+      <c r="S78" s="6">
         <v>4253</v>
       </c>
-      <c r="N78" s="6">
+      <c r="T78" s="6">
         <v>3383</v>
       </c>
-      <c r="O78" s="6">
+      <c r="U78" s="6">
         <v>3813</v>
       </c>
-      <c r="P78" s="6">
+      <c r="V78" s="6">
         <v>3335</v>
       </c>
-      <c r="Q78" s="6">
+      <c r="W78" s="6">
         <v>3340</v>
       </c>
-      <c r="R78" s="6">
+      <c r="X78" s="6">
         <v>3181</v>
       </c>
-      <c r="S78" s="6">
+      <c r="Y78" s="6">
         <v>3266</v>
       </c>
-      <c r="T78" s="6">
+      <c r="Z78" s="6">
         <v>3458</v>
       </c>
-      <c r="U78" s="6">
+      <c r="AA78" s="6">
         <v>3680</v>
       </c>
-      <c r="V78" s="6">
+      <c r="AB78" s="6">
         <v>3752</v>
       </c>
-      <c r="W78" s="6">
+      <c r="AC78" s="6">
         <v>3988</v>
       </c>
-      <c r="X78" s="6">
+      <c r="AD78" s="6">
         <v>4259</v>
       </c>
-      <c r="Y78" s="6">
+      <c r="AE78" s="6">
         <v>4077</v>
       </c>
-      <c r="Z78" s="6">
+      <c r="AF78" s="6">
         <v>5333</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="6">
         <v>1142465</v>
       </c>
-      <c r="C79" s="6">
+      <c r="I79" s="6">
         <v>1206292</v>
       </c>
-      <c r="D79" s="6">
+      <c r="J79" s="6">
         <v>1241967</v>
       </c>
-      <c r="E79" s="6">
+      <c r="K79" s="6">
         <v>1277681</v>
       </c>
-      <c r="F79" s="6">
+      <c r="L79" s="6">
         <v>1372963</v>
       </c>
-      <c r="G79" s="6">
+      <c r="M79" s="6">
         <v>1480954</v>
       </c>
-      <c r="H79" s="6">
+      <c r="N79" s="6">
         <v>1751931</v>
       </c>
-      <c r="I79" s="6">
+      <c r="O79" s="6">
         <v>1938475</v>
       </c>
-      <c r="J79" s="6">
+      <c r="P79" s="6">
         <v>1999013</v>
       </c>
-      <c r="K79" s="6">
+      <c r="Q79" s="6">
         <v>2192720</v>
       </c>
-      <c r="L79" s="6">
+      <c r="R79" s="6">
         <v>2262565</v>
       </c>
-      <c r="M79" s="6">
+      <c r="S79" s="6">
         <v>2291688</v>
       </c>
-      <c r="N79" s="6">
+      <c r="T79" s="6">
         <v>2344253</v>
       </c>
-      <c r="O79" s="6">
+      <c r="U79" s="6">
         <v>2396142</v>
       </c>
-      <c r="P79" s="6">
+      <c r="V79" s="6">
         <v>2409693</v>
       </c>
-      <c r="Q79" s="6">
+      <c r="W79" s="6">
         <v>2403801</v>
       </c>
-      <c r="R79" s="6">
+      <c r="X79" s="6">
         <v>2497849</v>
       </c>
-      <c r="S79" s="6">
+      <c r="Y79" s="6">
         <v>2550602</v>
       </c>
-      <c r="T79" s="6">
+      <c r="Z79" s="6">
         <v>2596021</v>
       </c>
-      <c r="U79" s="6">
+      <c r="AA79" s="6">
         <v>2589946</v>
       </c>
-      <c r="V79" s="6">
+      <c r="AB79" s="6">
         <v>2474733</v>
       </c>
-      <c r="W79" s="6">
+      <c r="AC79" s="6">
         <v>2682843</v>
       </c>
-      <c r="X79" s="6">
+      <c r="AD79" s="6">
         <v>2761622</v>
       </c>
-      <c r="Y79" s="6">
+      <c r="AE79" s="6">
         <v>2884108</v>
       </c>
-      <c r="Z79" s="6">
+      <c r="AF79" s="6">
         <v>3105516</v>
       </c>
     </row>
@@ -6804,15 +7629,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A56:Z56"/>
-    <mergeCell ref="A69:Z69"/>
+  <mergeCells count="2">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:Z7"/>
-    <mergeCell ref="A9:Z9"/>
-    <mergeCell ref="A29:Z29"/>
-    <mergeCell ref="A35:Z35"/>
-    <mergeCell ref="A50:Z50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
